--- a/Extensive Results~GitHub.xlsx
+++ b/Extensive Results~GitHub.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me Keys" sheetId="13" r:id="rId1"/>
-    <sheet name="Table 7" sheetId="2" r:id="rId2"/>
-    <sheet name="Table 8" sheetId="3" r:id="rId3"/>
-    <sheet name="Table 9" sheetId="4" r:id="rId4"/>
-    <sheet name="Table 10" sheetId="5" r:id="rId5"/>
-    <sheet name="Table 11" sheetId="6" r:id="rId6"/>
+    <sheet name="Table 8" sheetId="2" r:id="rId2"/>
+    <sheet name="Table 9" sheetId="3" r:id="rId3"/>
+    <sheet name="Table 10" sheetId="4" r:id="rId4"/>
+    <sheet name="Table 11" sheetId="5" r:id="rId5"/>
+    <sheet name="Table 12" sheetId="6" r:id="rId6"/>
     <sheet name="AVCI 2016 Set 1" sheetId="9" r:id="rId7"/>
     <sheet name="AVCI 2016 Set 2" sheetId="10" r:id="rId8"/>
   </sheets>
@@ -1048,7 +1048,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1568,63 +1568,6 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1731,14 +1674,86 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2028,128 +2043,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="229"/>
+    <col min="1" max="16384" width="9.140625" style="210"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C5" s="229" t="s">
+      <c r="C5" s="210" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="F7" s="229" t="s">
+      <c r="F7" s="210" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="M8" s="230" t="s">
+      <c r="M8" s="216" t="s">
         <v>116</v>
       </c>
-      <c r="N8" s="230"/>
-      <c r="O8" s="230"/>
-      <c r="P8" s="230"/>
-      <c r="Q8" s="230"/>
-      <c r="R8" s="230"/>
+      <c r="N8" s="216"/>
+      <c r="O8" s="216"/>
+      <c r="P8" s="216"/>
+      <c r="Q8" s="216"/>
+      <c r="R8" s="216"/>
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="H9" s="231" t="s">
+      <c r="H9" s="211" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="229" t="s">
+      <c r="I9" s="210" t="s">
         <v>118</v>
       </c>
-      <c r="M9" s="230"/>
-      <c r="N9" s="230"/>
-      <c r="O9" s="230"/>
-      <c r="P9" s="230"/>
-      <c r="Q9" s="230"/>
-      <c r="R9" s="230"/>
+      <c r="M9" s="216"/>
+      <c r="N9" s="216"/>
+      <c r="O9" s="216"/>
+      <c r="P9" s="216"/>
+      <c r="Q9" s="216"/>
+      <c r="R9" s="216"/>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="H10" s="232"/>
-      <c r="M10" s="229" t="s">
+      <c r="H10" s="212"/>
+      <c r="M10" s="210" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="H11" s="233" t="s">
+      <c r="H11" s="213" t="s">
         <v>120</v>
       </c>
-      <c r="I11" s="229" t="s">
+      <c r="I11" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="M11" s="229" t="s">
+      <c r="M11" s="210" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="M12" s="229" t="s">
+      <c r="M12" s="210" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="M13" s="229" t="s">
+      <c r="M13" s="210" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H18" s="234" t="s">
+      <c r="H18" s="214" t="s">
         <v>125</v>
       </c>
-      <c r="I18" s="229" t="s">
+      <c r="I18" s="210" t="s">
         <v>118</v>
       </c>
-      <c r="M18" s="230" t="s">
+      <c r="M18" s="216" t="s">
         <v>126</v>
       </c>
-      <c r="N18" s="230"/>
-      <c r="O18" s="230"/>
-      <c r="P18" s="230"/>
-      <c r="Q18" s="230"/>
-      <c r="R18" s="230"/>
+      <c r="N18" s="216"/>
+      <c r="O18" s="216"/>
+      <c r="P18" s="216"/>
+      <c r="Q18" s="216"/>
+      <c r="R18" s="216"/>
     </row>
     <row r="19" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="M19" s="230"/>
-      <c r="N19" s="230"/>
-      <c r="O19" s="230"/>
-      <c r="P19" s="230"/>
-      <c r="Q19" s="230"/>
-      <c r="R19" s="230"/>
+      <c r="M19" s="216"/>
+      <c r="N19" s="216"/>
+      <c r="O19" s="216"/>
+      <c r="P19" s="216"/>
+      <c r="Q19" s="216"/>
+      <c r="R19" s="216"/>
     </row>
     <row r="20" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H20" s="235" t="s">
+      <c r="H20" s="215" t="s">
         <v>127</v>
       </c>
-      <c r="I20" s="229" t="s">
+      <c r="I20" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="M20" s="229" t="s">
+      <c r="M20" s="210" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="M21" s="229" t="s">
+      <c r="M21" s="210" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="M22" s="229" t="s">
+      <c r="M22" s="210" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="23" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="M23" s="229" t="s">
+      <c r="M23" s="210" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="24" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="M24" s="229" t="s">
+      <c r="M24" s="210" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2169,7 +2184,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X12" sqref="X12"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,23 +2217,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="F1" s="178" t="s">
+      <c r="F1" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="176"/>
-      <c r="H1" s="177"/>
-      <c r="J1" s="178" t="s">
+      <c r="G1" s="218"/>
+      <c r="H1" s="219"/>
+      <c r="J1" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="176"/>
-      <c r="L1" s="177"/>
-      <c r="N1" s="178" t="s">
+      <c r="K1" s="218"/>
+      <c r="L1" s="219"/>
+      <c r="N1" s="220" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="177"/>
+      <c r="O1" s="218"/>
+      <c r="P1" s="218"/>
+      <c r="Q1" s="218"/>
+      <c r="R1" s="219"/>
     </row>
     <row r="2" spans="1:27" s="5" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2266,11 +2281,11 @@
       <c r="R2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="191" t="s">
+      <c r="T2" s="221" t="s">
         <v>112</v>
       </c>
-      <c r="U2" s="192"/>
-      <c r="V2" s="193"/>
+      <c r="U2" s="222"/>
+      <c r="V2" s="223"/>
       <c r="X2" s="148" t="s">
         <v>103</v>
       </c>
@@ -2332,15 +2347,15 @@
       <c r="R3" s="16">
         <v>0.1496084985275582</v>
       </c>
-      <c r="T3" s="194">
+      <c r="T3" s="175">
         <f>MAX(J3,F13,J13,N13)</f>
         <v>442.61499331716902</v>
       </c>
-      <c r="U3" s="194">
+      <c r="U3" s="175">
         <f t="shared" ref="U3:V3" si="0">MAX(K3,G13,K13,O13)</f>
         <v>1.065801620483398</v>
       </c>
-      <c r="V3" s="194">
+      <c r="V3" s="175">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2410,15 +2425,15 @@
       <c r="R4" s="16">
         <v>0.38875041502962238</v>
       </c>
-      <c r="T4" s="194">
+      <c r="T4" s="175">
         <f t="shared" ref="T4:T8" si="1">MAX(J4,F14,J14,N14)</f>
         <v>615.0533167263219</v>
       </c>
-      <c r="U4" s="194">
+      <c r="U4" s="175">
         <f t="shared" ref="U4:U8" si="2">MAX(K4,G14,K14,O14)</f>
         <v>17.4921875</v>
       </c>
-      <c r="V4" s="194">
+      <c r="V4" s="175">
         <f t="shared" ref="V4:V8" si="3">MAX(L4,H14,L14,P14)</f>
         <v>0</v>
       </c>
@@ -2488,15 +2503,15 @@
       <c r="R5" s="16">
         <v>0.77475956797494228</v>
       </c>
-      <c r="T5" s="194">
+      <c r="T5" s="175">
         <f t="shared" si="1"/>
         <v>721.74908048095597</v>
       </c>
-      <c r="U5" s="194">
+      <c r="U5" s="175">
         <f t="shared" si="2"/>
         <v>2733.4658756256099</v>
       </c>
-      <c r="V5" s="194">
+      <c r="V5" s="175">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2566,15 +2581,15 @@
       <c r="R6" s="16">
         <v>1.5031844400820551</v>
       </c>
-      <c r="T6" s="194">
+      <c r="T6" s="175">
         <f t="shared" si="1"/>
         <v>823.94472635451962</v>
       </c>
-      <c r="U6" s="194">
+      <c r="U6" s="175">
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-      <c r="V6" s="194">
+      <c r="V6" s="175">
         <f t="shared" si="3"/>
         <v>2.2760755390902599E-2</v>
       </c>
@@ -2644,15 +2659,15 @@
       <c r="R7" s="16">
         <v>2.7746893783548692</v>
       </c>
-      <c r="T7" s="194">
+      <c r="T7" s="175">
         <f t="shared" si="1"/>
         <v>942.93503209762605</v>
       </c>
-      <c r="U7" s="194">
+      <c r="U7" s="175">
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-      <c r="V7" s="194">
+      <c r="V7" s="175">
         <f t="shared" si="3"/>
         <v>7.1066000000000004E-2</v>
       </c>
@@ -2722,15 +2737,15 @@
       <c r="R8" s="21">
         <v>4.6166940001543884</v>
       </c>
-      <c r="T8" s="194">
+      <c r="T8" s="175">
         <f t="shared" si="1"/>
         <v>1062.602649646657</v>
       </c>
-      <c r="U8" s="194">
+      <c r="U8" s="175">
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-      <c r="V8" s="194">
+      <c r="V8" s="175">
         <f t="shared" si="3"/>
         <v>6.8665638210090293E-2</v>
       </c>
@@ -2751,19 +2766,19 @@
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="176" t="s">
+      <c r="F11" s="218" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="176"/>
-      <c r="M11" s="176"/>
-      <c r="N11" s="176"/>
-      <c r="O11" s="176"/>
-      <c r="P11" s="177"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="218"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="218"/>
+      <c r="K11" s="218"/>
+      <c r="L11" s="218"/>
+      <c r="M11" s="218"/>
+      <c r="N11" s="218"/>
+      <c r="O11" s="218"/>
+      <c r="P11" s="219"/>
     </row>
     <row r="12" spans="1:27" s="5" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -2808,11 +2823,11 @@
       <c r="P12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R12" s="191" t="s">
+      <c r="R12" s="221" t="s">
         <v>113</v>
       </c>
-      <c r="S12" s="192"/>
-      <c r="T12" s="193"/>
+      <c r="S12" s="222"/>
+      <c r="T12" s="223"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
@@ -2857,15 +2872,15 @@
       <c r="P13" s="15">
         <v>0</v>
       </c>
-      <c r="R13" s="194">
+      <c r="R13" s="175">
         <f>MIN(J3,F13,J13,N13)</f>
         <v>442.61499331716891</v>
       </c>
-      <c r="S13" s="194">
+      <c r="S13" s="175">
         <f t="shared" ref="S13:T13" si="4">MIN(K3,G13,K13,O13)</f>
         <v>0.32326316833496088</v>
       </c>
-      <c r="T13" s="194">
+      <c r="T13" s="175">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2918,15 +2933,15 @@
       <c r="P14" s="15">
         <v>0</v>
       </c>
-      <c r="R14" s="194">
+      <c r="R14" s="175">
         <f t="shared" ref="R14:R18" si="5">MIN(J4,F14,J14,N14)</f>
         <v>615.05331672632178</v>
       </c>
-      <c r="S14" s="194">
+      <c r="S14" s="175">
         <f t="shared" ref="S14:S18" si="6">MIN(K4,G14,K14,O14)</f>
         <v>2.0929336547851558</v>
       </c>
-      <c r="T14" s="194">
+      <c r="T14" s="175">
         <f t="shared" ref="T14:T18" si="7">MIN(L4,H14,L14,P14)</f>
         <v>0</v>
       </c>
@@ -2979,15 +2994,15 @@
       <c r="P15" s="15">
         <v>0</v>
       </c>
-      <c r="R15" s="194">
+      <c r="R15" s="175">
         <f t="shared" si="5"/>
         <v>721.74908048095597</v>
       </c>
-      <c r="S15" s="194">
+      <c r="S15" s="175">
         <f t="shared" si="6"/>
         <v>322.83170509338379</v>
       </c>
-      <c r="T15" s="194">
+      <c r="T15" s="175">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3040,15 +3055,15 @@
       <c r="P16" s="15">
         <v>0</v>
       </c>
-      <c r="R16" s="194">
+      <c r="R16" s="175">
         <f t="shared" si="5"/>
         <v>823.94472635451928</v>
       </c>
-      <c r="S16" s="194">
+      <c r="S16" s="175">
         <f t="shared" si="6"/>
         <v>25815.972215652469</v>
       </c>
-      <c r="T16" s="194">
+      <c r="T16" s="175">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3101,15 +3116,15 @@
       <c r="P17" s="15">
         <v>2.8506843465934498E-5</v>
       </c>
-      <c r="R17" s="194">
+      <c r="R17" s="175">
         <f t="shared" si="5"/>
         <v>904.65019144328983</v>
       </c>
-      <c r="S17" s="194">
+      <c r="S17" s="175">
         <f t="shared" si="6"/>
         <v>85328.702657699585</v>
       </c>
-      <c r="T17" s="194">
+      <c r="T17" s="175">
         <f t="shared" si="7"/>
         <v>2.8506843465934498E-5</v>
       </c>
@@ -3162,15 +3177,15 @@
       <c r="P18" s="33">
         <v>4.2430094325998702E-2</v>
       </c>
-      <c r="R18" s="194">
+      <c r="R18" s="175">
         <f t="shared" si="5"/>
         <v>1057.1689824517409</v>
       </c>
-      <c r="S18" s="194">
+      <c r="S18" s="175">
         <f t="shared" si="6"/>
         <v>86400</v>
       </c>
-      <c r="T18" s="194">
+      <c r="T18" s="175">
         <f t="shared" si="7"/>
         <v>4.2430094325998702E-2</v>
       </c>
@@ -3187,25 +3202,25 @@
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
-      <c r="F21" s="176" t="s">
+      <c r="F21" s="218" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="176"/>
-      <c r="H21" s="176"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="176"/>
-      <c r="K21" s="176"/>
-      <c r="L21" s="176"/>
-      <c r="M21" s="176"/>
-      <c r="N21" s="176"/>
-      <c r="O21" s="176"/>
-      <c r="P21" s="176"/>
-      <c r="Q21" s="176"/>
-      <c r="R21" s="176"/>
-      <c r="S21" s="176"/>
-      <c r="T21" s="176"/>
-      <c r="U21" s="176"/>
-      <c r="V21" s="177"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="218"/>
+      <c r="J21" s="218"/>
+      <c r="K21" s="218"/>
+      <c r="L21" s="218"/>
+      <c r="M21" s="218"/>
+      <c r="N21" s="218"/>
+      <c r="O21" s="218"/>
+      <c r="P21" s="218"/>
+      <c r="Q21" s="218"/>
+      <c r="R21" s="218"/>
+      <c r="S21" s="218"/>
+      <c r="T21" s="218"/>
+      <c r="U21" s="218"/>
+      <c r="V21" s="219"/>
     </row>
     <row r="22" spans="1:29" s="5" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -3350,7 +3365,7 @@
         <f t="shared" si="8"/>
         <v>9.4223915548444701</v>
       </c>
-      <c r="AC23" s="175" t="s">
+      <c r="AC23" s="217" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3435,7 +3450,7 @@
         <f t="shared" ref="AB24:AB28" si="13">MAX(J24,P24,V24,J34,P34,V34)</f>
         <v>14.03504693333115</v>
       </c>
-      <c r="AC24" s="175"/>
+      <c r="AC24" s="217"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
@@ -3518,7 +3533,7 @@
         <f t="shared" si="13"/>
         <v>35.356754559996297</v>
       </c>
-      <c r="AC25" s="175"/>
+      <c r="AC25" s="217"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
@@ -3601,7 +3616,7 @@
         <f t="shared" si="13"/>
         <v>36.172563740532773</v>
       </c>
-      <c r="AC26" s="175"/>
+      <c r="AC26" s="217"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
@@ -3684,7 +3699,7 @@
         <f t="shared" si="13"/>
         <v>65.074408382982412</v>
       </c>
-      <c r="AC27" s="175"/>
+      <c r="AC27" s="217"/>
     </row>
     <row r="28" spans="1:29" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="64">
@@ -3767,7 +3782,7 @@
         <f t="shared" si="13"/>
         <v>77.625933904264912</v>
       </c>
-      <c r="AC28" s="175"/>
+      <c r="AC28" s="217"/>
     </row>
     <row r="30" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:29" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
@@ -3776,25 +3791,25 @@
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
-      <c r="F31" s="176" t="s">
+      <c r="F31" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="176"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="176"/>
-      <c r="K31" s="176"/>
-      <c r="L31" s="176"/>
-      <c r="M31" s="176"/>
-      <c r="N31" s="176"/>
-      <c r="O31" s="176"/>
-      <c r="P31" s="176"/>
-      <c r="Q31" s="176"/>
-      <c r="R31" s="176"/>
-      <c r="S31" s="176"/>
-      <c r="T31" s="176"/>
-      <c r="U31" s="176"/>
-      <c r="V31" s="177"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="218"/>
+      <c r="I31" s="218"/>
+      <c r="J31" s="218"/>
+      <c r="K31" s="218"/>
+      <c r="L31" s="218"/>
+      <c r="M31" s="218"/>
+      <c r="N31" s="218"/>
+      <c r="O31" s="218"/>
+      <c r="P31" s="218"/>
+      <c r="Q31" s="218"/>
+      <c r="R31" s="218"/>
+      <c r="S31" s="218"/>
+      <c r="T31" s="218"/>
+      <c r="U31" s="218"/>
+      <c r="V31" s="219"/>
     </row>
     <row r="32" spans="1:29" s="5" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -3940,7 +3955,7 @@
         <f>MIN(J23,P23,V23,J33,P33,V33)</f>
         <v>1.87511575587974</v>
       </c>
-      <c r="AC33" s="175" t="s">
+      <c r="AC33" s="217" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4025,7 +4040,7 @@
         <f t="shared" si="18"/>
         <v>7.4452210938266248</v>
       </c>
-      <c r="AC34" s="175"/>
+      <c r="AC34" s="217"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
@@ -4108,7 +4123,7 @@
         <f t="shared" ref="AB35:AB38" si="19">MIN(J25,P25,V25,J35,P35,V35)</f>
         <v>13.500046148210711</v>
       </c>
-      <c r="AC35" s="175"/>
+      <c r="AC35" s="217"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
@@ -4191,7 +4206,7 @@
         <f t="shared" si="19"/>
         <v>16.4554682051638</v>
       </c>
-      <c r="AC36" s="175"/>
+      <c r="AC36" s="217"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
@@ -4274,7 +4289,7 @@
         <f t="shared" si="19"/>
         <v>29.759075128157161</v>
       </c>
-      <c r="AC37" s="175"/>
+      <c r="AC37" s="217"/>
     </row>
     <row r="38" spans="1:29" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="64">
@@ -4357,10 +4372,10 @@
         <f t="shared" si="19"/>
         <v>31.297470072637719</v>
       </c>
-      <c r="AC38" s="175"/>
+      <c r="AC38" s="217"/>
     </row>
     <row r="41" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A42" s="142" t="s">
         <v>3</v>
       </c>
@@ -4712,29 +4727,29 @@
       <c r="D52" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="F52" s="195" t="s">
+      <c r="F52" s="176" t="s">
         <v>111</v>
       </c>
       <c r="G52" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="H52" s="196"/>
+      <c r="H52" s="177"/>
       <c r="I52" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="J52" s="196"/>
+      <c r="J52" s="177"/>
       <c r="K52" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="L52" s="196"/>
+      <c r="L52" s="177"/>
       <c r="M52" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="N52" s="196"/>
+      <c r="N52" s="177"/>
       <c r="O52" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="P52" s="196"/>
+      <c r="P52" s="177"/>
       <c r="Q52" s="148" t="s">
         <v>57</v>
       </c>
@@ -4752,7 +4767,7 @@
       <c r="D53" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="197"/>
+      <c r="F53" s="178"/>
       <c r="G53" s="173">
         <f>100*(1-($N13/F23))</f>
         <v>0</v>
@@ -4778,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="25"/>
-      <c r="Q53" s="198">
+      <c r="Q53" s="179">
         <f>100*(1-($N13/R33))</f>
         <v>0</v>
       </c>
@@ -4796,7 +4811,7 @@
       <c r="D54" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="197"/>
+      <c r="F54" s="178"/>
       <c r="G54" s="173">
         <f t="shared" ref="G54:G58" si="26">100*(1-($N14/F24))</f>
         <v>2.2204460492503131E-14</v>
@@ -4822,7 +4837,7 @@
         <v>2.2204460492503131E-14</v>
       </c>
       <c r="P54" s="25"/>
-      <c r="Q54" s="198">
+      <c r="Q54" s="179">
         <f t="shared" ref="Q54:Q58" si="31">100*(1-($N14/R34))</f>
         <v>2.2204460492503131E-14</v>
       </c>
@@ -4840,7 +4855,7 @@
       <c r="D55" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="197"/>
+      <c r="F55" s="178"/>
       <c r="G55" s="173">
         <f t="shared" si="26"/>
         <v>0.2490430707305813</v>
@@ -4866,7 +4881,7 @@
         <v>0.25779122194475868</v>
       </c>
       <c r="P55" s="25"/>
-      <c r="Q55" s="198">
+      <c r="Q55" s="179">
         <f t="shared" si="31"/>
         <v>0.2490430707305813</v>
       </c>
@@ -4884,7 +4899,7 @@
       <c r="D56" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="197"/>
+      <c r="F56" s="178"/>
       <c r="G56" s="173">
         <f t="shared" si="26"/>
         <v>0.16393429281003069</v>
@@ -4910,7 +4925,7 @@
         <v>5.4217999060468536E-2</v>
       </c>
       <c r="P56" s="25"/>
-      <c r="Q56" s="198">
+      <c r="Q56" s="179">
         <f t="shared" si="31"/>
         <v>0.12362145208145714</v>
       </c>
@@ -4928,7 +4943,7 @@
       <c r="D57" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="197"/>
+      <c r="F57" s="178"/>
       <c r="G57" s="173">
         <f t="shared" si="26"/>
         <v>1.9023568392503964</v>
@@ -4954,7 +4969,7 @@
         <v>3.0461294349024892</v>
       </c>
       <c r="P57" s="25"/>
-      <c r="Q57" s="198">
+      <c r="Q57" s="179">
         <f t="shared" si="31"/>
         <v>0.30946201949009211</v>
       </c>
@@ -4972,7 +4987,7 @@
       <c r="D58" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F58" s="197"/>
+      <c r="F58" s="178"/>
       <c r="G58" s="173">
         <f t="shared" si="26"/>
         <v>3.2348143935231111</v>
@@ -4998,41 +5013,41 @@
         <v>1.0521520895050873</v>
       </c>
       <c r="P58" s="25"/>
-      <c r="Q58" s="198">
+      <c r="Q58" s="179">
         <f t="shared" si="31"/>
         <v>3.6778437367140371</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="F59" s="199" t="s">
+      <c r="F59" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="G59" s="200">
+      <c r="G59" s="181">
         <f>SUM(G53:G58)</f>
         <v>5.5501485963141413</v>
       </c>
-      <c r="H59" s="200"/>
-      <c r="I59" s="200">
+      <c r="H59" s="181"/>
+      <c r="I59" s="181">
         <f>SUM(I53:I58)</f>
         <v>6.1756571032712593</v>
       </c>
-      <c r="J59" s="200"/>
-      <c r="K59" s="200">
+      <c r="J59" s="181"/>
+      <c r="K59" s="181">
         <f>SUM(K53:K58)</f>
         <v>6.8891946737409722</v>
       </c>
-      <c r="L59" s="200"/>
-      <c r="M59" s="200">
+      <c r="L59" s="181"/>
+      <c r="M59" s="181">
         <f>SUM(M53:M58)</f>
         <v>7.1110226433645618</v>
       </c>
-      <c r="N59" s="200"/>
-      <c r="O59" s="200">
+      <c r="N59" s="181"/>
+      <c r="O59" s="181">
         <f>SUM(O53:O58)</f>
         <v>4.4102907454128264</v>
       </c>
-      <c r="P59" s="200"/>
-      <c r="Q59" s="201">
+      <c r="P59" s="181"/>
+      <c r="Q59" s="182">
         <f>SUM(Q53:Q58)</f>
         <v>4.3599702790161903</v>
       </c>
@@ -5154,11 +5169,11 @@
       <c r="R1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="191" t="s">
+      <c r="T1" s="221" t="s">
         <v>112</v>
       </c>
-      <c r="U1" s="192"/>
-      <c r="V1" s="193"/>
+      <c r="U1" s="222"/>
+      <c r="V1" s="223"/>
       <c r="AA1" s="42"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -5209,15 +5224,15 @@
       <c r="R2" s="16">
         <v>2.9565009206490629</v>
       </c>
-      <c r="T2" s="194">
+      <c r="T2" s="175">
         <f>MAX(J2,F11,J11,N11)</f>
         <v>980.35634116777783</v>
       </c>
-      <c r="U2" s="194">
+      <c r="U2" s="175">
         <f t="shared" ref="U2:V2" si="0">MAX(K2,G11,K11,O11)</f>
         <v>86400</v>
       </c>
-      <c r="V2" s="194">
+      <c r="V2" s="175">
         <f t="shared" si="0"/>
         <v>4.2571486072654999E-2</v>
       </c>
@@ -5274,15 +5289,15 @@
       <c r="R3" s="16">
         <v>16.486659636194581</v>
       </c>
-      <c r="T3" s="194">
+      <c r="T3" s="175">
         <f t="shared" ref="T3:T6" si="1">MAX(J3,F12,J12,N12)</f>
         <v>1525.2222879071251</v>
       </c>
-      <c r="U3" s="194">
+      <c r="U3" s="175">
         <f t="shared" ref="U3:U6" si="2">MAX(K3,G12,K12,O12)</f>
         <v>86400</v>
       </c>
-      <c r="V3" s="194">
+      <c r="V3" s="175">
         <f t="shared" ref="V3:V6" si="3">MAX(L3,H12,L12,P12)</f>
         <v>4.0746096106905799E-2</v>
       </c>
@@ -5339,15 +5354,15 @@
       <c r="R4" s="16">
         <v>46.036740020000003</v>
       </c>
-      <c r="T4" s="194">
+      <c r="T4" s="175">
         <f t="shared" si="1"/>
         <v>2218.5978180530969</v>
       </c>
-      <c r="U4" s="194">
+      <c r="U4" s="175">
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-      <c r="V4" s="194">
+      <c r="V4" s="175">
         <f t="shared" si="3"/>
         <v>0.11118763793448599</v>
       </c>
@@ -5404,15 +5419,15 @@
       <c r="R5" s="16">
         <v>288.91033591556152</v>
       </c>
-      <c r="T5" s="194">
+      <c r="T5" s="175">
         <f t="shared" si="1"/>
         <v>3532.3276771800411</v>
       </c>
-      <c r="U5" s="194">
+      <c r="U5" s="175">
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-      <c r="V5" s="194">
+      <c r="V5" s="175">
         <f t="shared" si="3"/>
         <v>2470.9897303590001</v>
       </c>
@@ -5470,15 +5485,15 @@
       <c r="R6" s="21">
         <v>1403.36155281382</v>
       </c>
-      <c r="T6" s="194">
+      <c r="T6" s="175">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U6" s="194">
+      <c r="U6" s="175">
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-      <c r="V6" s="194">
+      <c r="V6" s="175">
         <f t="shared" si="3"/>
         <v>2881.001950973272</v>
       </c>
@@ -5597,11 +5612,11 @@
         <v>12</v>
       </c>
       <c r="Q10" s="43"/>
-      <c r="R10" s="191" t="s">
+      <c r="R10" s="221" t="s">
         <v>113</v>
       </c>
-      <c r="S10" s="192"/>
-      <c r="T10" s="193"/>
+      <c r="S10" s="222"/>
+      <c r="T10" s="223"/>
       <c r="U10" s="43"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
@@ -5653,15 +5668,15 @@
         <v>2.7368089719400999E-2</v>
       </c>
       <c r="Q11" s="43"/>
-      <c r="R11" s="194">
+      <c r="R11" s="175">
         <f>MIN(J2,F11,J11,N11)</f>
         <v>959.36726945488635</v>
       </c>
-      <c r="S11" s="194">
+      <c r="S11" s="175">
         <f t="shared" ref="S11:T11" si="4">MIN(K2,G11,K11,O11)</f>
         <v>86400</v>
       </c>
-      <c r="T11" s="194">
+      <c r="T11" s="175">
         <f t="shared" si="4"/>
         <v>2.2549495649763399E-2</v>
       </c>
@@ -5716,15 +5731,15 @@
         <v>4.0746096106905799E-2</v>
       </c>
       <c r="Q12" s="43"/>
-      <c r="R12" s="194">
+      <c r="R12" s="175">
         <f t="shared" ref="R12:R15" si="5">MIN(J3,F12,J12,N12)</f>
         <v>1514.3858550937521</v>
       </c>
-      <c r="S12" s="194">
+      <c r="S12" s="175">
         <f t="shared" ref="S12:S15" si="6">MIN(K3,G12,K12,O12)</f>
         <v>86400</v>
       </c>
-      <c r="T12" s="194">
+      <c r="T12" s="175">
         <f t="shared" ref="T12:T14" si="7">MIN(L3,H12,L12,P12)</f>
         <v>3.3539813142876802E-2</v>
       </c>
@@ -5779,15 +5794,15 @@
         <v>0.102367598031784</v>
       </c>
       <c r="Q13" s="43"/>
-      <c r="R13" s="194">
+      <c r="R13" s="175">
         <f t="shared" si="5"/>
         <v>2179.2333715724699</v>
       </c>
-      <c r="S13" s="194">
+      <c r="S13" s="175">
         <f t="shared" si="6"/>
         <v>86400</v>
       </c>
-      <c r="T13" s="194">
+      <c r="T13" s="175">
         <f t="shared" si="7"/>
         <v>9.7016538129999996E-2</v>
       </c>
@@ -5842,15 +5857,15 @@
         <v>0.248894441172062</v>
       </c>
       <c r="Q14" s="43"/>
-      <c r="R14" s="194">
+      <c r="R14" s="175">
         <f t="shared" si="5"/>
         <v>3305.8365975844622</v>
       </c>
-      <c r="S14" s="194">
+      <c r="S14" s="175">
         <f t="shared" si="6"/>
         <v>86400</v>
       </c>
-      <c r="T14" s="194">
+      <c r="T14" s="175">
         <f t="shared" si="7"/>
         <v>0.248894441172062</v>
       </c>
@@ -5906,15 +5921,15 @@
         <v>2860.258989650496</v>
       </c>
       <c r="Q15" s="43"/>
-      <c r="R15" s="194">
+      <c r="R15" s="175">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S15" s="194">
+      <c r="S15" s="175">
         <f t="shared" si="6"/>
         <v>86400</v>
       </c>
-      <c r="T15" s="194">
+      <c r="T15" s="175">
         <f>MIN(L6,H15,L15,P15)</f>
         <v>2846.2882063588982</v>
       </c>
@@ -6091,7 +6106,7 @@
         <f t="shared" si="8"/>
         <v>33.116233244910397</v>
       </c>
-      <c r="AC20" s="175" t="s">
+      <c r="AC20" s="217" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6175,7 +6190,7 @@
         <f t="shared" ref="AB21:AB24" si="13">MAX(J21,P21,V21,J30,P30,V30)</f>
         <v>77.471954879670776</v>
       </c>
-      <c r="AC21" s="175"/>
+      <c r="AC21" s="217"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
@@ -6257,7 +6272,7 @@
         <f t="shared" si="13"/>
         <v>158.6107246</v>
       </c>
-      <c r="AC22" s="175"/>
+      <c r="AC22" s="217"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
@@ -6339,7 +6354,7 @@
         <f t="shared" si="13"/>
         <v>1025.971821308128</v>
       </c>
-      <c r="AC23" s="175"/>
+      <c r="AC23" s="217"/>
     </row>
     <row r="24" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29">
@@ -6422,7 +6437,7 @@
         <f t="shared" si="13"/>
         <v>689.40703901766972</v>
       </c>
-      <c r="AC24" s="175"/>
+      <c r="AC24" s="217"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="X25" s="13"/>
@@ -6574,7 +6589,7 @@
         <f t="shared" si="14"/>
         <v>9.6376087864889275</v>
       </c>
-      <c r="AC29" s="175" t="s">
+      <c r="AC29" s="217" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6658,7 +6673,7 @@
         <f t="shared" ref="AB30:AB33" si="19">MIN(J21,P21,V21,J30,P30,V30)</f>
         <v>24.552790851618571</v>
       </c>
-      <c r="AC30" s="175"/>
+      <c r="AC30" s="217"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
@@ -6740,7 +6755,7 @@
         <f t="shared" si="19"/>
         <v>50.405097448670453</v>
       </c>
-      <c r="AC31" s="175"/>
+      <c r="AC31" s="217"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
@@ -6822,7 +6837,7 @@
         <f t="shared" si="19"/>
         <v>321.79146322295139</v>
       </c>
-      <c r="AC32" s="175"/>
+      <c r="AC32" s="217"/>
     </row>
     <row r="33" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29">
@@ -6905,7 +6920,7 @@
         <f t="shared" si="19"/>
         <v>195.0489096570648</v>
       </c>
-      <c r="AC33" s="175"/>
+      <c r="AC33" s="217"/>
     </row>
     <row r="36" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:29" ht="85.5" x14ac:dyDescent="0.25">
@@ -7190,29 +7205,29 @@
         <v>6</v>
       </c>
       <c r="E47" s="9"/>
-      <c r="F47" s="195" t="s">
+      <c r="F47" s="176" t="s">
         <v>111</v>
       </c>
       <c r="G47" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="H47" s="196"/>
+      <c r="H47" s="177"/>
       <c r="I47" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="J47" s="196"/>
+      <c r="J47" s="177"/>
       <c r="K47" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="L47" s="196"/>
+      <c r="L47" s="177"/>
       <c r="M47" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="N47" s="196"/>
+      <c r="N47" s="177"/>
       <c r="O47" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="P47" s="196"/>
+      <c r="P47" s="177"/>
       <c r="Q47" s="148" t="s">
         <v>57</v>
       </c>
@@ -7231,7 +7246,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="9"/>
-      <c r="F48" s="197"/>
+      <c r="F48" s="178"/>
       <c r="G48" s="173">
         <f>100*(1-($N11/F20))</f>
         <v>3.924527699397462</v>
@@ -7253,7 +7268,7 @@
         <f>100*(1-($N11/L29))</f>
         <v>2.4847190488730631</v>
       </c>
-      <c r="Q48" s="198">
+      <c r="Q48" s="179">
         <f>100*(1-($N11/R29))</f>
         <v>3.5311475828508909</v>
       </c>
@@ -7272,7 +7287,7 @@
         <v>12</v>
       </c>
       <c r="E49" s="9"/>
-      <c r="F49" s="197"/>
+      <c r="F49" s="178"/>
       <c r="G49" s="173">
         <f t="shared" ref="G49:G51" si="26">100*(1-($N12/F21))</f>
         <v>3.9861555061410203</v>
@@ -7294,7 +7309,7 @@
         <f t="shared" ref="O49:O51" si="30">100*(1-($N12/L30))</f>
         <v>4.1781214823035651</v>
       </c>
-      <c r="Q49" s="198">
+      <c r="Q49" s="179">
         <f t="shared" ref="Q49:Q51" si="31">100*(1-($N12/R30))</f>
         <v>5.1853317383227076</v>
       </c>
@@ -7313,7 +7328,7 @@
         <v>25</v>
       </c>
       <c r="E50" s="9"/>
-      <c r="F50" s="197"/>
+      <c r="F50" s="178"/>
       <c r="G50" s="173">
         <f t="shared" si="26"/>
         <v>5.5740588318499036</v>
@@ -7335,7 +7350,7 @@
         <f t="shared" si="30"/>
         <v>5.9845700840078013</v>
       </c>
-      <c r="Q50" s="198">
+      <c r="Q50" s="179">
         <f t="shared" si="31"/>
         <v>6.914379525101733</v>
       </c>
@@ -7354,7 +7369,7 @@
         <v>66</v>
       </c>
       <c r="E51" s="9"/>
-      <c r="F51" s="197"/>
+      <c r="F51" s="178"/>
       <c r="G51" s="173">
         <f t="shared" si="26"/>
         <v>-6.7604307398103858</v>
@@ -7376,7 +7391,7 @@
         <f t="shared" si="30"/>
         <v>-5.8620858266432263</v>
       </c>
-      <c r="Q51" s="198">
+      <c r="Q51" s="179">
         <f t="shared" si="31"/>
         <v>-5.2533665033948962</v>
       </c>
@@ -7395,14 +7410,14 @@
         <v>69</v>
       </c>
       <c r="E52" s="9"/>
-      <c r="F52" s="197"/>
+      <c r="F52" s="178"/>
       <c r="G52" s="173"/>
       <c r="I52" s="173"/>
       <c r="J52" s="173"/>
       <c r="K52" s="173"/>
       <c r="M52" s="173"/>
       <c r="O52" s="173"/>
-      <c r="Q52" s="198"/>
+      <c r="Q52" s="179"/>
     </row>
     <row r="53" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
@@ -7410,35 +7425,35 @@
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
-      <c r="F53" s="199" t="s">
+      <c r="F53" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="G53" s="202">
+      <c r="G53" s="183">
         <f>SUM(G48:G52)</f>
         <v>6.7243112975780006</v>
       </c>
-      <c r="H53" s="200"/>
-      <c r="I53" s="200">
+      <c r="H53" s="181"/>
+      <c r="I53" s="181">
         <f>SUM(I48:I52)</f>
         <v>9.4615574036520869</v>
       </c>
-      <c r="J53" s="200"/>
-      <c r="K53" s="200">
+      <c r="J53" s="181"/>
+      <c r="K53" s="181">
         <f>SUM(K48:K52)</f>
         <v>8.0108379711981037</v>
       </c>
-      <c r="L53" s="200"/>
-      <c r="M53" s="200">
+      <c r="L53" s="181"/>
+      <c r="M53" s="181">
         <f>SUM(M48:M52)</f>
         <v>11.551111902580766</v>
       </c>
-      <c r="N53" s="200"/>
-      <c r="O53" s="200">
+      <c r="N53" s="181"/>
+      <c r="O53" s="181">
         <f>SUM(O48:O52)</f>
         <v>6.785324788541204</v>
       </c>
-      <c r="P53" s="200"/>
-      <c r="Q53" s="203">
+      <c r="P53" s="181"/>
+      <c r="Q53" s="184">
         <f>SUM(Q48:Q52)</f>
         <v>10.377492342880434</v>
       </c>
@@ -7459,7 +7474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC56"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1:V1"/>
     </sheetView>
@@ -7541,11 +7556,11 @@
         <v>17</v>
       </c>
       <c r="S1" s="35"/>
-      <c r="T1" s="191" t="s">
+      <c r="T1" s="221" t="s">
         <v>112</v>
       </c>
-      <c r="U1" s="192"/>
-      <c r="V1" s="193"/>
+      <c r="U1" s="222"/>
+      <c r="V1" s="223"/>
     </row>
     <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
@@ -7596,15 +7611,15 @@
       <c r="R2" s="16">
         <v>380.83106094947408</v>
       </c>
-      <c r="T2" s="194">
+      <c r="T2" s="175">
         <f>MAX(J2,F11,J11,N11)</f>
         <v>3436.274700877932</v>
       </c>
-      <c r="U2" s="194">
+      <c r="U2" s="175">
         <f t="shared" ref="U2:V2" si="0">MAX(K2,G11,K11,O11)</f>
         <v>86400</v>
       </c>
-      <c r="V2" s="194">
+      <c r="V2" s="175">
         <f t="shared" si="0"/>
         <v>0.123774551172719</v>
       </c>
@@ -7625,11 +7640,11 @@
         <v>36</v>
       </c>
       <c r="E3" s="25"/>
-      <c r="F3" s="179" t="s">
+      <c r="F3" s="224" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11">
         <v>4263.3153837942109</v>
@@ -7656,15 +7671,15 @@
       <c r="R3" s="16">
         <v>3273.6768308896508</v>
       </c>
-      <c r="T3" s="194">
+      <c r="T3" s="175">
         <f t="shared" ref="T3:T6" si="1">MAX(J3,F12,J12,N12)</f>
         <v>4296.3225562961679</v>
       </c>
-      <c r="U3" s="194">
+      <c r="U3" s="175">
         <f t="shared" ref="U3:U6" si="2">MAX(K3,G12,K12,O12)</f>
         <v>86400</v>
       </c>
-      <c r="V3" s="194">
+      <c r="V3" s="175">
         <f t="shared" ref="V3:V6" si="3">MAX(L3,H12,L12,P12)</f>
         <v>0.15365603494743099</v>
       </c>
@@ -7685,9 +7700,9 @@
         <v>75</v>
       </c>
       <c r="E4" s="25"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
       <c r="I4" s="11"/>
       <c r="J4" s="17">
         <v>10711.20180089647</v>
@@ -7714,15 +7729,15 @@
       <c r="R4" s="16">
         <v>421.28620982397291</v>
       </c>
-      <c r="T4" s="194">
+      <c r="T4" s="175">
         <f t="shared" si="1"/>
         <v>10711.20180089647</v>
       </c>
-      <c r="U4" s="194">
+      <c r="U4" s="175">
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-      <c r="V4" s="194">
+      <c r="V4" s="175">
         <f t="shared" si="3"/>
         <v>3936.01</v>
       </c>
@@ -7743,9 +7758,9 @@
         <v>45</v>
       </c>
       <c r="E5" s="25"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
-      <c r="H5" s="179"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
       <c r="I5" s="11"/>
       <c r="J5" s="14">
         <v>5913.1559863326038</v>
@@ -7772,15 +7787,15 @@
       <c r="R5" s="16">
         <v>493.96642198884979</v>
       </c>
-      <c r="T5" s="194">
+      <c r="T5" s="175">
         <f t="shared" si="1"/>
         <v>5913.1559863326038</v>
       </c>
-      <c r="U5" s="194">
+      <c r="U5" s="175">
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-      <c r="V5" s="194">
+      <c r="V5" s="175">
         <f t="shared" si="3"/>
         <v>0.213044947079011</v>
       </c>
@@ -7801,9 +7816,9 @@
         <v>45</v>
       </c>
       <c r="E6" s="30"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="225"/>
       <c r="I6" s="19"/>
       <c r="J6" s="31">
         <v>7441.5968436672274</v>
@@ -7830,15 +7845,15 @@
       <c r="R6" s="21">
         <v>521.24151225605283</v>
       </c>
-      <c r="T6" s="194">
+      <c r="T6" s="175">
         <f t="shared" si="1"/>
         <v>7441.5968436672274</v>
       </c>
-      <c r="U6" s="194">
+      <c r="U6" s="175">
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-      <c r="V6" s="194">
+      <c r="V6" s="175">
         <f t="shared" si="3"/>
         <v>0.27400135569115203</v>
       </c>
@@ -7889,11 +7904,11 @@
       <c r="P10" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="191" t="s">
+      <c r="R10" s="221" t="s">
         <v>113</v>
       </c>
-      <c r="S10" s="192"/>
-      <c r="T10" s="193"/>
+      <c r="S10" s="222"/>
+      <c r="T10" s="223"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
@@ -7938,15 +7953,15 @@
       <c r="P11" s="15">
         <v>0.11641</v>
       </c>
-      <c r="R11" s="194">
+      <c r="R11" s="175">
         <f>MIN(J2,F11,J11,N11)</f>
         <v>3370.7131231767121</v>
       </c>
-      <c r="S11" s="194">
+      <c r="S11" s="175">
         <f t="shared" ref="S11:T11" si="4">MIN(K2,G11,K11,O11)</f>
         <v>86400</v>
       </c>
-      <c r="T11" s="194">
+      <c r="T11" s="175">
         <f t="shared" si="4"/>
         <v>0.10658920529895299</v>
       </c>
@@ -7996,15 +8011,15 @@
       <c r="P12" s="15">
         <v>0.14910000000000001</v>
       </c>
-      <c r="R12" s="194">
+      <c r="R12" s="175">
         <f t="shared" ref="R12:R15" si="5">MIN(J3,F12,J12,N12)</f>
         <v>4222.9883346073648</v>
       </c>
-      <c r="S12" s="194">
+      <c r="S12" s="175">
         <f t="shared" ref="S12:S15" si="6">MIN(K3,G12,K12,O12)</f>
         <v>86400</v>
       </c>
-      <c r="T12" s="194">
+      <c r="T12" s="175">
         <f t="shared" ref="T12:T14" si="7">MIN(L3,H12,L12,P12)</f>
         <v>0.13924347890502201</v>
       </c>
@@ -8054,15 +8069,15 @@
       <c r="P13" s="16">
         <v>3936.01</v>
       </c>
-      <c r="R13" s="194">
+      <c r="R13" s="175">
         <f t="shared" si="5"/>
         <v>10711.20180089647</v>
       </c>
-      <c r="S13" s="194">
+      <c r="S13" s="175">
         <f t="shared" si="6"/>
         <v>86400</v>
       </c>
-      <c r="T13" s="194">
+      <c r="T13" s="175">
         <f t="shared" si="7"/>
         <v>0.63039327604577</v>
       </c>
@@ -8112,15 +8127,15 @@
       <c r="P14" s="15">
         <v>0.18459999999999999</v>
       </c>
-      <c r="R14" s="194">
+      <c r="R14" s="175">
         <f t="shared" si="5"/>
         <v>5682.83</v>
       </c>
-      <c r="S14" s="194">
+      <c r="S14" s="175">
         <f t="shared" si="6"/>
         <v>86400</v>
       </c>
-      <c r="T14" s="194">
+      <c r="T14" s="175">
         <f t="shared" si="7"/>
         <v>0.18459999999999999</v>
       </c>
@@ -8170,15 +8185,15 @@
       <c r="P15" s="33">
         <v>0.22220000000000001</v>
       </c>
-      <c r="R15" s="194">
+      <c r="R15" s="175">
         <f t="shared" si="5"/>
         <v>6912.91</v>
       </c>
-      <c r="S15" s="194">
+      <c r="S15" s="175">
         <f t="shared" si="6"/>
         <v>86400</v>
       </c>
-      <c r="T15" s="194">
+      <c r="T15" s="175">
         <f>MIN(L6,H15,L15,P15)</f>
         <v>0.22218383254149399</v>
       </c>
@@ -8329,7 +8344,7 @@
         <f t="shared" si="8"/>
         <v>266.8624050406811</v>
       </c>
-      <c r="AC20" s="175" t="s">
+      <c r="AC20" s="217" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8414,7 +8429,7 @@
         <f t="shared" ref="AB21:AB24" si="13">MAX(J21,P21,V21,J30,P30,V30)</f>
         <v>669.99839913396079</v>
       </c>
-      <c r="AC21" s="175"/>
+      <c r="AC21" s="217"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
@@ -8497,7 +8512,7 @@
         <f t="shared" si="13"/>
         <v>2291.3148817064348</v>
       </c>
-      <c r="AC22" s="175"/>
+      <c r="AC22" s="217"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
@@ -8580,7 +8595,7 @@
         <f t="shared" si="13"/>
         <v>1182.8776992984619</v>
       </c>
-      <c r="AC23" s="175"/>
+      <c r="AC23" s="217"/>
     </row>
     <row r="24" spans="1:29" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="64">
@@ -8663,7 +8678,7 @@
         <f t="shared" si="13"/>
         <v>896.43416829398654</v>
       </c>
-      <c r="AC24" s="175"/>
+      <c r="AC24" s="217"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="X25" s="59"/>
@@ -8816,7 +8831,7 @@
         <f t="shared" si="14"/>
         <v>157.72326906397819</v>
       </c>
-      <c r="AC29" s="175" t="s">
+      <c r="AC29" s="217" t="s">
         <v>97</v>
       </c>
     </row>
@@ -8901,7 +8916,7 @@
         <f t="shared" ref="AB30:AB32" si="19">MIN(J21,P21,V21,J30,P30,V30)</f>
         <v>364.61113459690529</v>
       </c>
-      <c r="AC30" s="175"/>
+      <c r="AC30" s="217"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
@@ -8984,7 +8999,7 @@
         <f t="shared" si="19"/>
         <v>1108.052000448504</v>
       </c>
-      <c r="AC31" s="175"/>
+      <c r="AC31" s="217"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
@@ -9067,7 +9082,7 @@
         <f t="shared" si="19"/>
         <v>571.98321039608118</v>
       </c>
-      <c r="AC32" s="175"/>
+      <c r="AC32" s="217"/>
     </row>
     <row r="33" spans="1:29" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="64">
@@ -9150,50 +9165,50 @@
         <f>MIN(J24,P24,V24,J33,P33,V33)</f>
         <v>387.9166904084891</v>
       </c>
-      <c r="AC33" s="175"/>
+      <c r="AC33" s="217"/>
     </row>
     <row r="37" spans="1:29" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="204" t="s">
+      <c r="A37" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="205" t="s">
+      <c r="B37" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="205" t="s">
+      <c r="C37" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="206" t="s">
+      <c r="D37" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="195" t="s">
+      <c r="F37" s="176" t="s">
         <v>107</v>
       </c>
       <c r="G37" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="196"/>
+      <c r="H37" s="177"/>
       <c r="I37" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="J37" s="196"/>
+      <c r="J37" s="177"/>
       <c r="K37" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="L37" s="196"/>
+      <c r="L37" s="177"/>
       <c r="M37" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="N37" s="196"/>
+      <c r="N37" s="177"/>
       <c r="O37" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="P37" s="196"/>
+      <c r="P37" s="177"/>
       <c r="Q37" s="148" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="197">
+      <c r="A38" s="178">
         <v>12</v>
       </c>
       <c r="B38" s="25">
@@ -9202,10 +9217,10 @@
       <c r="C38" s="25">
         <v>3</v>
       </c>
-      <c r="D38" s="207">
+      <c r="D38" s="188">
         <v>29</v>
       </c>
-      <c r="F38" s="197"/>
+      <c r="F38" s="178"/>
       <c r="G38" s="173">
         <f>100*(1-(N11/G20))</f>
         <v>35.043945994448663</v>
@@ -9231,13 +9246,13 @@
         <v>33.185597090749596</v>
       </c>
       <c r="P38" s="25"/>
-      <c r="Q38" s="198">
+      <c r="Q38" s="179">
         <f>100*(1-(N11/S29))</f>
         <v>31.136458839405133</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="197">
+      <c r="A39" s="178">
         <v>13</v>
       </c>
       <c r="B39" s="25">
@@ -9246,10 +9261,10 @@
       <c r="C39" s="25">
         <v>2</v>
       </c>
-      <c r="D39" s="207">
+      <c r="D39" s="188">
         <v>36</v>
       </c>
-      <c r="F39" s="197"/>
+      <c r="F39" s="178"/>
       <c r="G39" s="173">
         <f t="shared" ref="G39:G42" si="20">100*(1-(N12/G21))</f>
         <v>32.454794767718262</v>
@@ -9275,13 +9290,13 @@
         <v>33.762166256985502</v>
       </c>
       <c r="P39" s="25"/>
-      <c r="Q39" s="198">
+      <c r="Q39" s="179">
         <f t="shared" ref="Q39:Q42" si="25">100*(1-(N12/S30))</f>
         <v>29.638086038759749</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="197">
+      <c r="A40" s="178">
         <v>14</v>
       </c>
       <c r="B40" s="25">
@@ -9290,10 +9305,10 @@
       <c r="C40" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="207" t="s">
+      <c r="D40" s="188" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="197"/>
+      <c r="F40" s="178"/>
       <c r="G40" s="173">
         <f>100*(1-(J4/G22))</f>
         <v>-11.933489796519915</v>
@@ -9319,13 +9334,13 @@
         <v>-34.886729812427419</v>
       </c>
       <c r="P40" s="25"/>
-      <c r="Q40" s="198">
+      <c r="Q40" s="179">
         <f>100*(1-(J4/S31))</f>
         <v>-29.695279573419064</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="197">
+      <c r="A41" s="178">
         <v>15</v>
       </c>
       <c r="B41" s="25">
@@ -9334,10 +9349,10 @@
       <c r="C41" s="25">
         <v>2</v>
       </c>
-      <c r="D41" s="207">
+      <c r="D41" s="188">
         <v>45</v>
       </c>
-      <c r="F41" s="197"/>
+      <c r="F41" s="178"/>
       <c r="G41" s="173">
         <f t="shared" si="20"/>
         <v>32.493973036335873</v>
@@ -9363,25 +9378,25 @@
         <v>33.607097785832266</v>
       </c>
       <c r="P41" s="25"/>
-      <c r="Q41" s="198">
+      <c r="Q41" s="179">
         <f t="shared" si="25"/>
         <v>37.845668072191643</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="208">
+      <c r="A42" s="189">
         <v>16</v>
       </c>
-      <c r="B42" s="209">
+      <c r="B42" s="190">
         <v>450</v>
       </c>
-      <c r="C42" s="209">
+      <c r="C42" s="190">
         <v>3</v>
       </c>
-      <c r="D42" s="210">
+      <c r="D42" s="191">
         <v>45</v>
       </c>
-      <c r="F42" s="197"/>
+      <c r="F42" s="178"/>
       <c r="G42" s="173">
         <f t="shared" si="20"/>
         <v>30.317102977559294</v>
@@ -9407,13 +9422,13 @@
         <v>32.937775718291448</v>
       </c>
       <c r="P42" s="25"/>
-      <c r="Q42" s="198">
+      <c r="Q42" s="179">
         <f t="shared" si="25"/>
         <v>36.925120836900781</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="F43" s="211" t="s">
+      <c r="F43" s="192" t="s">
         <v>108</v>
       </c>
       <c r="G43" s="173">
@@ -9431,23 +9446,23 @@
         <v>124.75272177483861</v>
       </c>
       <c r="L43" s="173"/>
-      <c r="M43" s="212">
+      <c r="M43" s="193">
         <f>SUM(M38:M42)</f>
         <v>100.09284467649627</v>
       </c>
       <c r="N43" s="173"/>
-      <c r="O43" s="213">
+      <c r="O43" s="194">
         <f>SUM(O38:O42)</f>
         <v>98.605907039431401</v>
       </c>
       <c r="P43" s="173"/>
-      <c r="Q43" s="198">
+      <c r="Q43" s="179">
         <f>SUM(Q38:Q42)</f>
         <v>105.85005421383823</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F44" s="214"/>
+      <c r="F44" s="195"/>
       <c r="G44" s="173"/>
       <c r="H44" s="173"/>
       <c r="I44" s="173"/>
@@ -9458,66 +9473,66 @@
       <c r="N44" s="173"/>
       <c r="O44" s="173"/>
       <c r="P44" s="173"/>
-      <c r="Q44" s="198"/>
+      <c r="Q44" s="179"/>
     </row>
     <row r="45" spans="1:29" ht="60" x14ac:dyDescent="0.25">
-      <c r="F45" s="215"/>
-      <c r="G45" s="200"/>
-      <c r="H45" s="200"/>
-      <c r="I45" s="200"/>
-      <c r="J45" s="200"/>
-      <c r="K45" s="200"/>
-      <c r="L45" s="200"/>
-      <c r="M45" s="200" t="s">
+      <c r="F45" s="196"/>
+      <c r="G45" s="181"/>
+      <c r="H45" s="181"/>
+      <c r="I45" s="181"/>
+      <c r="J45" s="181"/>
+      <c r="K45" s="181"/>
+      <c r="L45" s="181"/>
+      <c r="M45" s="181" t="s">
         <v>109</v>
       </c>
-      <c r="N45" s="200"/>
-      <c r="O45" s="200"/>
-      <c r="P45" s="200"/>
-      <c r="Q45" s="203"/>
+      <c r="N45" s="181"/>
+      <c r="O45" s="181"/>
+      <c r="P45" s="181"/>
+      <c r="Q45" s="184"/>
     </row>
     <row r="50" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="204" t="s">
+      <c r="A50" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="205" t="s">
+      <c r="B50" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="205" t="s">
+      <c r="C50" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="206" t="s">
+      <c r="D50" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="195" t="s">
+      <c r="F50" s="176" t="s">
         <v>111</v>
       </c>
       <c r="G50" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="H50" s="196"/>
+      <c r="H50" s="177"/>
       <c r="I50" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="J50" s="196"/>
+      <c r="J50" s="177"/>
       <c r="K50" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="L50" s="196"/>
+      <c r="L50" s="177"/>
       <c r="M50" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="N50" s="196"/>
+      <c r="N50" s="177"/>
       <c r="O50" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="P50" s="196"/>
+      <c r="P50" s="177"/>
       <c r="Q50" s="148" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="197">
+      <c r="A51" s="178">
         <v>12</v>
       </c>
       <c r="B51" s="25">
@@ -9526,10 +9541,10 @@
       <c r="C51" s="25">
         <v>3</v>
       </c>
-      <c r="D51" s="207">
+      <c r="D51" s="188">
         <v>29</v>
       </c>
-      <c r="F51" s="197"/>
+      <c r="F51" s="178"/>
       <c r="G51" s="173">
         <f>100*(1-($N11/F20))</f>
         <v>16.617901591842354</v>
@@ -9555,13 +9570,13 @@
         <v>24.040928740740252</v>
       </c>
       <c r="P51" s="25"/>
-      <c r="Q51" s="198">
+      <c r="Q51" s="179">
         <f>100*(1-($N11/R29))</f>
         <v>25.733660991579821</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="197">
+      <c r="A52" s="178">
         <v>13</v>
       </c>
       <c r="B52" s="25">
@@ -9570,10 +9585,10 @@
       <c r="C52" s="25">
         <v>2</v>
       </c>
-      <c r="D52" s="207">
+      <c r="D52" s="188">
         <v>36</v>
       </c>
-      <c r="F52" s="197"/>
+      <c r="F52" s="178"/>
       <c r="G52" s="173">
         <f t="shared" ref="G52:G55" si="26">100*(1-($N12/F21))</f>
         <v>21.87902508633567</v>
@@ -9599,13 +9614,13 @@
         <v>24.313399394512093</v>
       </c>
       <c r="P52" s="25"/>
-      <c r="Q52" s="198">
+      <c r="Q52" s="179">
         <f t="shared" ref="Q52:Q55" si="31">100*(1-($N12/R30))</f>
         <v>23.64408229415028</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="197">
+      <c r="A53" s="178">
         <v>14</v>
       </c>
       <c r="B53" s="25">
@@ -9614,10 +9629,10 @@
       <c r="C53" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="207" t="s">
+      <c r="D53" s="188" t="s">
         <v>75</v>
       </c>
-      <c r="F53" s="197"/>
+      <c r="F53" s="178"/>
       <c r="G53" s="173">
         <f>100*(1-(J4/F22))</f>
         <v>-63.764139525556729</v>
@@ -9643,13 +9658,13 @@
         <v>-63.060657929166396</v>
       </c>
       <c r="P53" s="25"/>
-      <c r="Q53" s="198">
+      <c r="Q53" s="179">
         <f>100*(1-(J4/R31))</f>
         <v>-56.933155788007085</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="197">
+      <c r="A54" s="178">
         <v>15</v>
       </c>
       <c r="B54" s="25">
@@ -9658,10 +9673,10 @@
       <c r="C54" s="25">
         <v>2</v>
       </c>
-      <c r="D54" s="207">
+      <c r="D54" s="188">
         <v>45</v>
       </c>
-      <c r="F54" s="197"/>
+      <c r="F54" s="178"/>
       <c r="G54" s="173">
         <f t="shared" si="26"/>
         <v>19.417744691535344</v>
@@ -9687,25 +9702,25 @@
         <v>24.812114223121473</v>
       </c>
       <c r="P54" s="25"/>
-      <c r="Q54" s="198">
+      <c r="Q54" s="179">
         <f t="shared" si="31"/>
         <v>29.01575773627939</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="208">
+      <c r="A55" s="189">
         <v>16</v>
       </c>
-      <c r="B55" s="209">
+      <c r="B55" s="190">
         <v>450</v>
       </c>
-      <c r="C55" s="209">
+      <c r="C55" s="190">
         <v>3</v>
       </c>
-      <c r="D55" s="210">
+      <c r="D55" s="191">
         <v>45</v>
       </c>
-      <c r="F55" s="197"/>
+      <c r="F55" s="178"/>
       <c r="G55" s="173">
         <f t="shared" si="26"/>
         <v>18.624360503442507</v>
@@ -9731,41 +9746,41 @@
         <v>19.128402793731848</v>
       </c>
       <c r="P55" s="25"/>
-      <c r="Q55" s="198">
+      <c r="Q55" s="179">
         <f t="shared" si="31"/>
         <v>24.774049562697652</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="F56" s="199" t="s">
+      <c r="F56" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="G56" s="202">
+      <c r="G56" s="183">
         <f>SUM(G51:G55)</f>
         <v>12.774892347599149</v>
       </c>
-      <c r="H56" s="200"/>
-      <c r="I56" s="200">
+      <c r="H56" s="181"/>
+      <c r="I56" s="181">
         <f>SUM(I51:I55)</f>
         <v>12.926248865466285</v>
       </c>
-      <c r="J56" s="200"/>
-      <c r="K56" s="200">
+      <c r="J56" s="181"/>
+      <c r="K56" s="181">
         <f>SUM(K51:K55)</f>
         <v>18.955207174532127</v>
       </c>
-      <c r="L56" s="200"/>
-      <c r="M56" s="200">
+      <c r="L56" s="181"/>
+      <c r="M56" s="181">
         <f>SUM(M51:M55)</f>
         <v>37.293342264357896</v>
       </c>
-      <c r="N56" s="200"/>
-      <c r="O56" s="200">
+      <c r="N56" s="181"/>
+      <c r="O56" s="181">
         <f>SUM(O51:O55)</f>
         <v>29.234187222939269</v>
       </c>
-      <c r="P56" s="200"/>
-      <c r="Q56" s="203">
+      <c r="P56" s="181"/>
+      <c r="Q56" s="184">
         <f>SUM(Q51:Q55)</f>
         <v>46.234394796700059</v>
       </c>
@@ -9789,12 +9804,12 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:A1048576"/>
+      <selection pane="topRight" activeCell="R12" sqref="R12:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="9" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
@@ -9873,11 +9888,11 @@
       <c r="R1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="191" t="s">
+      <c r="T1" s="221" t="s">
         <v>112</v>
       </c>
-      <c r="U1" s="192"/>
-      <c r="V1" s="193"/>
+      <c r="U1" s="222"/>
+      <c r="V1" s="223"/>
       <c r="X1" s="148" t="s">
         <v>103</v>
       </c>
@@ -9941,15 +9956,15 @@
       <c r="R2" s="16">
         <v>9.9124991019951727E-3</v>
       </c>
-      <c r="T2" s="194">
+      <c r="T2" s="175">
         <f>MAX(J2,F13,J13,N13)</f>
         <v>340.99877079999999</v>
       </c>
-      <c r="U2" s="194">
+      <c r="U2" s="175">
         <f t="shared" ref="U2:V2" si="0">MAX(K2,G13,K13,O13)</f>
         <v>1.245491028</v>
       </c>
-      <c r="V2" s="194">
+      <c r="V2" s="175">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10021,15 +10036,15 @@
       <c r="R3" s="16">
         <v>0.1525088864022473</v>
       </c>
-      <c r="T3" s="194">
+      <c r="T3" s="175">
         <f t="shared" ref="T3:T7" si="1">MAX(J3,F14,J14,N14)</f>
         <v>508.54620448848249</v>
       </c>
-      <c r="U3" s="194">
+      <c r="U3" s="175">
         <f t="shared" ref="U3:U8" si="2">MAX(K3,G14,K14,O14)</f>
         <v>5.0894031524658203</v>
       </c>
-      <c r="V3" s="194">
+      <c r="V3" s="175">
         <f t="shared" ref="V3:V8" si="3">MAX(L3,H14,L14,P14)</f>
         <v>0</v>
       </c>
@@ -10101,15 +10116,15 @@
       <c r="R4" s="16">
         <v>0.3520930581536259</v>
       </c>
-      <c r="T4" s="194">
+      <c r="T4" s="175">
         <f t="shared" si="1"/>
         <v>606.3346766916452</v>
       </c>
-      <c r="U4" s="194">
+      <c r="U4" s="175">
         <f t="shared" si="2"/>
         <v>85.573314666748047</v>
       </c>
-      <c r="V4" s="194">
+      <c r="V4" s="175">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10181,15 +10196,15 @@
       <c r="R5" s="16">
         <v>1.029035240210832</v>
       </c>
-      <c r="T5" s="194">
+      <c r="T5" s="175">
         <f t="shared" si="1"/>
         <v>700.73444509514763</v>
       </c>
-      <c r="U5" s="194">
+      <c r="U5" s="175">
         <f t="shared" si="2"/>
         <v>2159.3409862518311</v>
       </c>
-      <c r="V5" s="194">
+      <c r="V5" s="175">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10261,15 +10276,15 @@
       <c r="R6" s="16">
         <v>1.1215462151852991</v>
       </c>
-      <c r="T6" s="194">
+      <c r="T6" s="175">
         <f t="shared" si="1"/>
         <v>808.02752933342583</v>
       </c>
-      <c r="U6" s="194">
+      <c r="U6" s="175">
         <f t="shared" si="2"/>
         <v>45808.806741714478</v>
       </c>
-      <c r="V6" s="194">
+      <c r="V6" s="175">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10341,15 +10356,15 @@
       <c r="R7" s="16">
         <v>1.581836520231926</v>
       </c>
-      <c r="T7" s="194">
+      <c r="T7" s="175">
         <f t="shared" si="1"/>
         <v>974.73739726338658</v>
       </c>
-      <c r="U7" s="194">
+      <c r="U7" s="175">
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-      <c r="V7" s="194">
+      <c r="V7" s="175">
         <f t="shared" si="3"/>
         <v>9.5065669460192806E-2</v>
       </c>
@@ -10408,15 +10423,15 @@
       <c r="R8" s="21">
         <v>1.6134385870427499</v>
       </c>
-      <c r="T8" s="194">
+      <c r="T8" s="175">
         <f>MAX(J8,F19,J19,N19)</f>
         <v>1106.4157293754949</v>
       </c>
-      <c r="U8" s="194">
+      <c r="U8" s="175">
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-      <c r="V8" s="194">
+      <c r="V8" s="175">
         <f t="shared" si="3"/>
         <v>0.107975280630043</v>
       </c>
@@ -10536,11 +10551,11 @@
         <v>12</v>
       </c>
       <c r="Q12" s="35"/>
-      <c r="R12" s="191" t="s">
+      <c r="R12" s="221" t="s">
         <v>113</v>
       </c>
-      <c r="S12" s="192"/>
-      <c r="T12" s="193"/>
+      <c r="S12" s="222"/>
+      <c r="T12" s="223"/>
       <c r="U12" s="35"/>
       <c r="V12" s="35"/>
       <c r="W12" s="35"/>
@@ -10598,15 +10613,15 @@
         <v>0</v>
       </c>
       <c r="Q13" s="13"/>
-      <c r="R13" s="194">
+      <c r="R13" s="175">
         <f>MIN(J2,F13,J13,N13)</f>
         <v>340.99877077330223</v>
       </c>
-      <c r="S13" s="194">
+      <c r="S13" s="175">
         <f t="shared" ref="S13:T13" si="5">MIN(K2,G13,K13,O13)</f>
         <v>0.14059257507324219</v>
       </c>
-      <c r="T13" s="194">
+      <c r="T13" s="175">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -10667,15 +10682,15 @@
         <v>0</v>
       </c>
       <c r="Q14" s="13"/>
-      <c r="R14" s="194">
+      <c r="R14" s="175">
         <f t="shared" ref="R14:R19" si="6">MIN(J3,F14,J14,N14)</f>
         <v>508.54620448848249</v>
       </c>
-      <c r="S14" s="194">
+      <c r="S14" s="175">
         <f t="shared" ref="S14:S19" si="7">MIN(K3,G14,K14,O14)</f>
         <v>1.3639125823974609</v>
       </c>
-      <c r="T14" s="194">
+      <c r="T14" s="175">
         <f t="shared" ref="T14:T19" si="8">MIN(L3,H14,L14,P14)</f>
         <v>0</v>
       </c>
@@ -10736,15 +10751,15 @@
         <v>0</v>
       </c>
       <c r="Q15" s="13"/>
-      <c r="R15" s="194">
+      <c r="R15" s="175">
         <f t="shared" si="6"/>
         <v>606.33467669164497</v>
       </c>
-      <c r="S15" s="194">
+      <c r="S15" s="175">
         <f t="shared" si="7"/>
         <v>29.364498138427731</v>
       </c>
-      <c r="T15" s="194">
+      <c r="T15" s="175">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -10805,15 +10820,15 @@
         <v>0</v>
       </c>
       <c r="Q16" s="13"/>
-      <c r="R16" s="194">
+      <c r="R16" s="175">
         <f t="shared" si="6"/>
         <v>700.73444509514763</v>
       </c>
-      <c r="S16" s="194">
+      <c r="S16" s="175">
         <f t="shared" si="7"/>
         <v>173.24005699157709</v>
       </c>
-      <c r="T16" s="194">
+      <c r="T16" s="175">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -10874,15 +10889,15 @@
         <v>0</v>
       </c>
       <c r="Q17" s="13"/>
-      <c r="R17" s="194">
+      <c r="R17" s="175">
         <f t="shared" si="6"/>
         <v>808.02752933342572</v>
       </c>
-      <c r="S17" s="194">
+      <c r="S17" s="175">
         <f t="shared" si="7"/>
         <v>1982.057746887207</v>
       </c>
-      <c r="T17" s="194">
+      <c r="T17" s="175">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -10942,15 +10957,15 @@
       <c r="P18" s="15">
         <v>2.7423647622337999E-2</v>
       </c>
-      <c r="R18" s="194">
+      <c r="R18" s="175">
         <f>MIN(J7,F18,J18,N18)</f>
         <v>937.95184285875905</v>
       </c>
-      <c r="S18" s="194">
+      <c r="S18" s="175">
         <f t="shared" si="7"/>
         <v>86400</v>
       </c>
-      <c r="T18" s="194">
+      <c r="T18" s="175">
         <f t="shared" si="8"/>
         <v>2.1281211021367399E-2</v>
       </c>
@@ -11010,15 +11025,15 @@
       <c r="P19" s="20">
         <v>8.5326190439009894E-2</v>
       </c>
-      <c r="R19" s="194">
+      <c r="R19" s="175">
         <f t="shared" si="6"/>
         <v>1079.8572572445721</v>
       </c>
-      <c r="S19" s="194">
+      <c r="S19" s="175">
         <f t="shared" si="7"/>
         <v>86400</v>
       </c>
-      <c r="T19" s="194">
+      <c r="T19" s="175">
         <f t="shared" si="8"/>
         <v>7.3058891572344797E-2</v>
       </c>
@@ -11036,7 +11051,7 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:29" s="5" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" s="5" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>3</v>
       </c>
@@ -11179,7 +11194,7 @@
         <f t="shared" si="9"/>
         <v>0.74873100906262846</v>
       </c>
-      <c r="AC24" s="175" t="s">
+      <c r="AC24" s="217" t="s">
         <v>100</v>
       </c>
     </row>
@@ -11264,7 +11279,7 @@
         <f t="shared" ref="AB25:AB29" si="14">MAX(J25,P25,V25,J35,P35,V35)</f>
         <v>11.133768400893221</v>
       </c>
-      <c r="AC25" s="175"/>
+      <c r="AC25" s="217"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
@@ -11347,7 +11362,7 @@
         <f t="shared" si="14"/>
         <v>18.859686331819319</v>
       </c>
-      <c r="AC26" s="175"/>
+      <c r="AC26" s="217"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
@@ -11430,7 +11445,7 @@
         <f t="shared" si="14"/>
         <v>24.302948583458161</v>
       </c>
-      <c r="AC27" s="175"/>
+      <c r="AC27" s="217"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
@@ -11513,7 +11528,7 @@
         <f t="shared" si="14"/>
         <v>39.111442628717583</v>
       </c>
-      <c r="AC28" s="175"/>
+      <c r="AC28" s="217"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
@@ -11596,7 +11611,7 @@
         <f t="shared" si="14"/>
         <v>43.51228819734218</v>
       </c>
-      <c r="AC29" s="175"/>
+      <c r="AC29" s="217"/>
     </row>
     <row r="30" spans="1:29" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="64">
@@ -11679,7 +11694,7 @@
         <f>MAX(J30,P30,V30,J40,P40,V40)</f>
         <v>31.29740272696586</v>
       </c>
-      <c r="AC30" s="175"/>
+      <c r="AC30" s="217"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="X31" s="59"/>
@@ -11832,7 +11847,7 @@
         <f t="shared" si="17"/>
         <v>0.46307710445423589</v>
       </c>
-      <c r="AC34" s="175" t="s">
+      <c r="AC34" s="217" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11917,7 +11932,7 @@
         <f t="shared" ref="AB35:AB39" si="19">MIN(J25,P25,V25,J35,P35,V35)</f>
         <v>5.4073239081981006</v>
       </c>
-      <c r="AC35" s="175"/>
+      <c r="AC35" s="217"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
@@ -12000,7 +12015,7 @@
         <f t="shared" si="19"/>
         <v>9.5981981252152924</v>
       </c>
-      <c r="AC36" s="175"/>
+      <c r="AC36" s="217"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
@@ -12083,7 +12098,7 @@
         <f t="shared" si="19"/>
         <v>7.9166067657798704</v>
       </c>
-      <c r="AC37" s="175"/>
+      <c r="AC37" s="217"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
@@ -12166,7 +12181,7 @@
         <f t="shared" si="19"/>
         <v>19.863015921211851</v>
       </c>
-      <c r="AC38" s="175"/>
+      <c r="AC38" s="217"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
@@ -12249,7 +12264,7 @@
         <f t="shared" si="19"/>
         <v>29.397762454672229</v>
       </c>
-      <c r="AC39" s="175"/>
+      <c r="AC39" s="217"/>
     </row>
     <row r="40" spans="1:29" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="64">
@@ -12332,7 +12347,7 @@
         <f>MIN(J30,P30,V30,J40,P40,V40)</f>
         <v>14.22794921430136</v>
       </c>
-      <c r="AC40" s="175"/>
+      <c r="AC40" s="217"/>
     </row>
     <row r="43" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:29" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12718,7 +12733,7 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:17" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A55" s="151" t="s">
         <v>3</v>
       </c>
@@ -12731,30 +12746,30 @@
       <c r="D55" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="195" t="s">
+      <c r="F55" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="G55" s="205" t="s">
+      <c r="G55" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="H55" s="196"/>
-      <c r="I55" s="205" t="s">
+      <c r="H55" s="177"/>
+      <c r="I55" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="196"/>
-      <c r="K55" s="205" t="s">
+      <c r="J55" s="177"/>
+      <c r="K55" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="L55" s="196"/>
-      <c r="M55" s="205" t="s">
+      <c r="L55" s="177"/>
+      <c r="M55" s="186" t="s">
         <v>47</v>
       </c>
-      <c r="N55" s="196"/>
-      <c r="O55" s="205" t="s">
+      <c r="N55" s="177"/>
+      <c r="O55" s="186" t="s">
         <v>52</v>
       </c>
-      <c r="P55" s="196"/>
-      <c r="Q55" s="206" t="s">
+      <c r="P55" s="177"/>
+      <c r="Q55" s="187" t="s">
         <v>57</v>
       </c>
     </row>
@@ -12771,7 +12786,7 @@
       <c r="D56" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="F56" s="197"/>
+      <c r="F56" s="178"/>
       <c r="G56" s="173">
         <f>100*(1-($X13/F24))</f>
         <v>-7.8292927696566039E-9</v>
@@ -12797,7 +12812,7 @@
         <v>-7.8292927696566039E-9</v>
       </c>
       <c r="P56" s="25"/>
-      <c r="Q56" s="198">
+      <c r="Q56" s="179">
         <f>100*(1-($X13/R34))</f>
         <v>-7.8292927696566039E-9</v>
       </c>
@@ -12815,7 +12830,7 @@
       <c r="D57" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="F57" s="197"/>
+      <c r="F57" s="178"/>
       <c r="G57" s="173">
         <f t="shared" ref="G57:G62" si="28">100*(1-($X14/F25))</f>
         <v>0</v>
@@ -12841,7 +12856,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="25"/>
-      <c r="Q57" s="198">
+      <c r="Q57" s="179">
         <f t="shared" ref="Q57:Q62" si="33">100*(1-($X14/R35))</f>
         <v>0</v>
       </c>
@@ -12859,7 +12874,7 @@
       <c r="D58" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="F58" s="197"/>
+      <c r="F58" s="178"/>
       <c r="G58" s="173">
         <f t="shared" si="28"/>
         <v>-2.2204460492503131E-14</v>
@@ -12885,7 +12900,7 @@
         <v>-2.2204460492503131E-14</v>
       </c>
       <c r="P58" s="25"/>
-      <c r="Q58" s="198">
+      <c r="Q58" s="179">
         <f t="shared" si="33"/>
         <v>-2.2204460492503131E-14</v>
       </c>
@@ -12903,7 +12918,7 @@
       <c r="D59" s="162" t="s">
         <v>77</v>
       </c>
-      <c r="F59" s="197"/>
+      <c r="F59" s="178"/>
       <c r="G59" s="173">
         <f t="shared" si="28"/>
         <v>4.6186785679403153</v>
@@ -12929,7 +12944,7 @@
         <v>6.4593680195257903</v>
       </c>
       <c r="P59" s="25"/>
-      <c r="Q59" s="198">
+      <c r="Q59" s="179">
         <f t="shared" si="33"/>
         <v>2.7214939258334847</v>
       </c>
@@ -12947,7 +12962,7 @@
       <c r="D60" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="197"/>
+      <c r="F60" s="178"/>
       <c r="G60" s="173">
         <f t="shared" si="28"/>
         <v>1.1102230246251565E-14</v>
@@ -12973,7 +12988,7 @@
         <v>1.1102230246251565E-14</v>
       </c>
       <c r="P60" s="25"/>
-      <c r="Q60" s="198">
+      <c r="Q60" s="179">
         <f t="shared" si="33"/>
         <v>4.0064361727949578</v>
       </c>
@@ -12991,7 +13006,7 @@
       <c r="D61" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="F61" s="197"/>
+      <c r="F61" s="178"/>
       <c r="G61" s="173">
         <f t="shared" si="28"/>
         <v>-6.761887109948761</v>
@@ -13017,7 +13032,7 @@
         <v>-4.5032313421312642</v>
       </c>
       <c r="P61" s="25"/>
-      <c r="Q61" s="198">
+      <c r="Q61" s="179">
         <f t="shared" si="33"/>
         <v>-2.7441433007428184</v>
       </c>
@@ -13035,7 +13050,7 @@
       <c r="D62" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F62" s="216"/>
+      <c r="F62" s="197"/>
       <c r="G62" s="173">
         <f t="shared" si="28"/>
         <v>-0.12353018192410303</v>
@@ -13061,41 +13076,41 @@
         <v>2.0891886174846497</v>
       </c>
       <c r="P62" s="30"/>
-      <c r="Q62" s="198">
+      <c r="Q62" s="179">
         <f t="shared" si="33"/>
         <v>-1.2613089475846495</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="F63" s="199" t="s">
+      <c r="F63" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="G63" s="202">
+      <c r="G63" s="183">
         <f>SUM(G56:G62)</f>
         <v>-2.266738731761853</v>
       </c>
-      <c r="H63" s="200"/>
-      <c r="I63" s="200">
+      <c r="H63" s="181"/>
+      <c r="I63" s="181">
         <f t="shared" ref="I63" si="34">SUM(I56:I62)</f>
         <v>-1.744010035274679</v>
       </c>
-      <c r="J63" s="200"/>
-      <c r="K63" s="200">
+      <c r="J63" s="181"/>
+      <c r="K63" s="181">
         <f t="shared" ref="K63" si="35">SUM(K56:K62)</f>
         <v>7.1355948686482868</v>
       </c>
-      <c r="L63" s="200"/>
-      <c r="M63" s="200">
+      <c r="L63" s="181"/>
+      <c r="M63" s="181">
         <f t="shared" ref="M63" si="36">SUM(M56:M62)</f>
         <v>7.1964272662074054</v>
       </c>
-      <c r="N63" s="200"/>
-      <c r="O63" s="200">
+      <c r="N63" s="181"/>
+      <c r="O63" s="181">
         <f t="shared" ref="O63" si="37">SUM(O56:O62)</f>
         <v>4.0453252870498719</v>
       </c>
-      <c r="P63" s="200"/>
-      <c r="Q63" s="203">
+      <c r="P63" s="181"/>
+      <c r="Q63" s="184">
         <f t="shared" ref="Q63" si="38">SUM(Q56:Q62)</f>
         <v>2.7224778424716591</v>
       </c>
@@ -13217,13 +13232,13 @@
       <c r="R1" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="191" t="s">
+      <c r="T1" s="221" t="s">
         <v>112</v>
       </c>
-      <c r="U1" s="192"/>
-      <c r="V1" s="193"/>
-    </row>
-    <row r="2" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="U1" s="222"/>
+      <c r="V1" s="223"/>
+    </row>
+    <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="62">
         <v>24</v>
       </c>
@@ -13272,20 +13287,20 @@
       <c r="R2" s="16">
         <v>5.5461151725967914</v>
       </c>
-      <c r="T2" s="194">
+      <c r="T2" s="175">
         <f>MAX(J2,F17,J17,N17)</f>
         <v>2731.3529061122022</v>
       </c>
-      <c r="U2" s="194">
+      <c r="U2" s="175">
         <f t="shared" ref="U2:V2" si="0">MAX(K2,G17,K17,O17)</f>
         <v>86400</v>
       </c>
-      <c r="V2" s="194">
+      <c r="V2" s="175">
         <f t="shared" si="0"/>
         <v>9.9224406110011307E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="62">
         <v>25</v>
       </c>
@@ -13334,15 +13349,15 @@
       <c r="R3" s="16">
         <v>20.017905395320639</v>
       </c>
-      <c r="T3" s="194">
+      <c r="T3" s="175">
         <f t="shared" ref="T3:T12" si="1">MAX(J3,F18,J18,N18)</f>
         <v>4923.3005666195604</v>
       </c>
-      <c r="U3" s="194">
+      <c r="U3" s="175">
         <f t="shared" ref="U3:U12" si="2">MAX(K3,G18,K18,O18)</f>
         <v>86400</v>
       </c>
-      <c r="V3" s="194">
+      <c r="V3" s="175">
         <f t="shared" ref="V3:V12" si="3">MAX(L3,H18,L18,P18)</f>
         <v>0.22207784985238199</v>
       </c>
@@ -13361,11 +13376,11 @@
         <v>86</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="179" t="s">
+      <c r="F4" s="224" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11">
         <v>7084.4283949344481</v>
@@ -13392,15 +13407,15 @@
       <c r="R4" s="16">
         <v>52.166112581334993</v>
       </c>
-      <c r="T4" s="194">
+      <c r="T4" s="175">
         <f t="shared" si="1"/>
         <v>8290.416302568352</v>
       </c>
-      <c r="U4" s="194">
+      <c r="U4" s="175">
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-      <c r="V4" s="194">
+      <c r="V4" s="175">
         <f t="shared" si="3"/>
         <v>5665.8898388675552</v>
       </c>
@@ -13419,9 +13434,9 @@
         <v>87</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
-      <c r="H5" s="179"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11" t="s">
         <v>65</v>
@@ -13448,15 +13463,15 @@
       <c r="R5" s="16">
         <v>70.503016287657289</v>
       </c>
-      <c r="T5" s="194">
+      <c r="T5" s="175">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U5" s="194">
+      <c r="U5" s="175">
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-      <c r="V5" s="194">
+      <c r="V5" s="175">
         <f t="shared" si="3"/>
         <v>6264.7623180000001</v>
       </c>
@@ -13475,9 +13490,9 @@
         <v>88</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
+      <c r="F6" s="224"/>
+      <c r="G6" s="224"/>
+      <c r="H6" s="224"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11" t="s">
         <v>65</v>
@@ -13504,15 +13519,15 @@
       <c r="R6" s="16">
         <v>78.035819564189637</v>
       </c>
-      <c r="T6" s="194">
+      <c r="T6" s="175">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U6" s="194">
+      <c r="U6" s="175">
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-      <c r="V6" s="194">
+      <c r="V6" s="175">
         <f t="shared" si="3"/>
         <v>9208.9203845296415</v>
       </c>
@@ -13531,9 +13546,9 @@
         <v>89</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
         <v>65</v>
@@ -13560,15 +13575,15 @@
       <c r="R7" s="16">
         <v>187.38479083979581</v>
       </c>
-      <c r="T7" s="194">
+      <c r="T7" s="175">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U7" s="194">
+      <c r="U7" s="175">
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-      <c r="V7" s="194">
+      <c r="V7" s="175">
         <f t="shared" si="3"/>
         <v>8283.1125331638159</v>
       </c>
@@ -13587,9 +13602,9 @@
         <v>90</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="224"/>
       <c r="I8" s="11"/>
       <c r="J8" s="17">
         <v>22023.719440331501</v>
@@ -13616,15 +13631,15 @@
       <c r="R8" s="16">
         <v>177.43781920316209</v>
       </c>
-      <c r="T8" s="194">
+      <c r="T8" s="175">
         <f t="shared" si="1"/>
         <v>22023.719440331501</v>
       </c>
-      <c r="U8" s="194">
+      <c r="U8" s="175">
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-      <c r="V8" s="194">
+      <c r="V8" s="175">
         <f t="shared" si="3"/>
         <v>12399.79622293469</v>
       </c>
@@ -13643,9 +13658,9 @@
         <v>91</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="224"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11" t="s">
         <v>65</v>
@@ -13672,15 +13687,15 @@
       <c r="R9" s="16">
         <v>421.153166350807</v>
       </c>
-      <c r="T9" s="194">
+      <c r="T9" s="175">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U9" s="194">
+      <c r="U9" s="175">
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-      <c r="V9" s="194">
+      <c r="V9" s="175">
         <f t="shared" si="3"/>
         <v>11558.727679128129</v>
       </c>
@@ -13699,9 +13714,9 @@
         <v>92</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="224"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11" t="s">
         <v>65</v>
@@ -13728,15 +13743,15 @@
       <c r="R10" s="16">
         <v>531.98824341079296</v>
       </c>
-      <c r="T10" s="194">
+      <c r="T10" s="175">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U10" s="194">
+      <c r="U10" s="175">
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-      <c r="V10" s="194">
+      <c r="V10" s="175">
         <f t="shared" si="3"/>
         <v>15498.102932004909</v>
       </c>
@@ -13755,9 +13770,9 @@
         <v>93</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
+      <c r="F11" s="224"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="224"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
         <v>65</v>
@@ -13784,15 +13799,15 @@
       <c r="R11" s="16">
         <v>474.12503438152271</v>
       </c>
-      <c r="T11" s="194">
+      <c r="T11" s="175">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U11" s="194">
+      <c r="U11" s="175">
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-      <c r="V11" s="194">
+      <c r="V11" s="175">
         <f t="shared" si="3"/>
         <v>15815.606201289989</v>
       </c>
@@ -13811,9 +13826,9 @@
         <v>94</v>
       </c>
       <c r="E12" s="19"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="180"/>
+      <c r="F12" s="225"/>
+      <c r="G12" s="225"/>
+      <c r="H12" s="225"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19" t="s">
         <v>65</v>
@@ -13840,15 +13855,15 @@
       <c r="R12" s="21">
         <v>1146.226473093697</v>
       </c>
-      <c r="T12" s="194">
+      <c r="T12" s="175">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U12" s="194">
+      <c r="U12" s="175">
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-      <c r="V12" s="194">
+      <c r="V12" s="175">
         <f t="shared" si="3"/>
         <v>14464.409850137081</v>
       </c>
@@ -13914,11 +13929,11 @@
       <c r="P16" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="R16" s="191" t="s">
+      <c r="R16" s="221" t="s">
         <v>113</v>
       </c>
-      <c r="S16" s="192"/>
-      <c r="T16" s="193"/>
+      <c r="S16" s="222"/>
+      <c r="T16" s="223"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="62">
@@ -13963,15 +13978,15 @@
       <c r="P17" s="15">
         <v>9.9224406110011307E-2</v>
       </c>
-      <c r="R17" s="194">
+      <c r="R17" s="175">
         <f>MIN(J2,F17,J17,N17)</f>
         <v>2624.2136279017082</v>
       </c>
-      <c r="S17" s="194">
+      <c r="S17" s="175">
         <f t="shared" ref="S17:T17" si="4">MIN(K2,G17,K17,O17)</f>
         <v>86400</v>
       </c>
-      <c r="T17" s="194">
+      <c r="T17" s="175">
         <f t="shared" si="4"/>
         <v>6.04748828904823E-2</v>
       </c>
@@ -14019,20 +14034,20 @@
       <c r="P18" s="15">
         <v>0.194572477508487</v>
       </c>
-      <c r="R18" s="194">
+      <c r="R18" s="175">
         <f t="shared" ref="R18:R27" si="5">MIN(J3,F18,J18,N18)</f>
         <v>4698.7065670000002</v>
       </c>
-      <c r="S18" s="194">
+      <c r="S18" s="175">
         <f t="shared" ref="S18:S27" si="6">MIN(K3,G18,K18,O18)</f>
         <v>86400</v>
       </c>
-      <c r="T18" s="194">
+      <c r="T18" s="175">
         <f t="shared" ref="T18:T27" si="7">MIN(L3,H18,L18,P18)</f>
         <v>0.194572477508487</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="62">
         <v>26</v>
       </c>
@@ -14075,20 +14090,20 @@
       <c r="P19" s="15">
         <v>0.159991255660482</v>
       </c>
-      <c r="R19" s="194">
+      <c r="R19" s="175">
         <f t="shared" si="5"/>
         <v>6721.047748</v>
       </c>
-      <c r="S19" s="194">
+      <c r="S19" s="175">
         <f t="shared" si="6"/>
         <v>86400</v>
       </c>
-      <c r="T19" s="194">
+      <c r="T19" s="175">
         <f t="shared" si="7"/>
         <v>0.159991255660482</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="62">
         <v>27</v>
       </c>
@@ -14131,20 +14146,20 @@
       <c r="P20" s="65">
         <v>6264.7623180000001</v>
       </c>
-      <c r="R20" s="194">
+      <c r="R20" s="175">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S20" s="194">
+      <c r="S20" s="175">
         <f t="shared" si="6"/>
         <v>86400</v>
       </c>
-      <c r="T20" s="194">
+      <c r="T20" s="175">
         <f t="shared" si="7"/>
         <v>6138.3199674158886</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="62">
         <v>28</v>
       </c>
@@ -14187,20 +14202,20 @@
       <c r="P21" s="16">
         <v>9168.3478209999994</v>
       </c>
-      <c r="R21" s="194">
+      <c r="R21" s="175">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S21" s="194">
+      <c r="S21" s="175">
         <f t="shared" si="6"/>
         <v>86400</v>
       </c>
-      <c r="T21" s="194">
+      <c r="T21" s="175">
         <f t="shared" si="7"/>
         <v>9054.9643955597949</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="62">
         <v>29</v>
       </c>
@@ -14243,20 +14258,20 @@
       <c r="P22" s="16">
         <v>8107.7765360000003</v>
       </c>
-      <c r="R22" s="194">
+      <c r="R22" s="175">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S22" s="194">
+      <c r="S22" s="175">
         <f t="shared" si="6"/>
         <v>86400</v>
       </c>
-      <c r="T22" s="194">
+      <c r="T22" s="175">
         <f t="shared" si="7"/>
         <v>8070.5959530966684</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="62">
         <v>30</v>
       </c>
@@ -14299,20 +14314,20 @@
       <c r="P23" s="66">
         <v>12291.31286</v>
       </c>
-      <c r="R23" s="194">
+      <c r="R23" s="175">
         <f t="shared" si="5"/>
         <v>22023.719440331501</v>
       </c>
-      <c r="S23" s="194">
+      <c r="S23" s="175">
         <f t="shared" si="6"/>
         <v>86400</v>
       </c>
-      <c r="T23" s="194">
+      <c r="T23" s="175">
         <f t="shared" si="7"/>
         <v>0.42901345048202999</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="62">
         <v>31</v>
       </c>
@@ -14355,20 +14370,20 @@
       <c r="P24" s="16">
         <v>11331.50136</v>
       </c>
-      <c r="R24" s="194">
+      <c r="R24" s="175">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S24" s="194">
+      <c r="S24" s="175">
         <f t="shared" si="6"/>
         <v>86400</v>
       </c>
-      <c r="T24" s="194">
+      <c r="T24" s="175">
         <f t="shared" si="7"/>
         <v>11246.6994870574</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="62">
         <v>32</v>
       </c>
@@ -14411,20 +14426,20 @@
       <c r="P25" s="16">
         <v>15027.45622</v>
       </c>
-      <c r="R25" s="194">
+      <c r="R25" s="175">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S25" s="194">
+      <c r="S25" s="175">
         <f t="shared" si="6"/>
         <v>86400</v>
       </c>
-      <c r="T25" s="194">
+      <c r="T25" s="175">
         <f t="shared" si="7"/>
         <v>14983.721444628371</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="62">
         <v>33</v>
       </c>
@@ -14467,20 +14482,20 @@
       <c r="P26" s="16">
         <v>15425.083989999999</v>
       </c>
-      <c r="R26" s="194">
+      <c r="R26" s="175">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S26" s="194">
+      <c r="S26" s="175">
         <f t="shared" si="6"/>
         <v>86400</v>
       </c>
-      <c r="T26" s="194">
+      <c r="T26" s="175">
         <f t="shared" si="7"/>
         <v>15401.48895559761</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="62">
         <v>34</v>
       </c>
@@ -14523,15 +14538,15 @@
       <c r="P27" s="21">
         <v>14159.791929999999</v>
       </c>
-      <c r="R27" s="194">
+      <c r="R27" s="175">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S27" s="194">
+      <c r="S27" s="175">
         <f t="shared" si="6"/>
         <v>86400</v>
       </c>
-      <c r="T27" s="194">
+      <c r="T27" s="175">
         <f t="shared" si="7"/>
         <v>14120.19037646429</v>
       </c>
@@ -14687,7 +14702,7 @@
         <f t="shared" si="8"/>
         <v>100.6377701619713</v>
       </c>
-      <c r="AC32" s="181" t="s">
+      <c r="AC32" s="226" t="s">
         <v>100</v>
       </c>
     </row>
@@ -14772,7 +14787,7 @@
         <f t="shared" ref="AB33:AB42" si="13">MAX(J33,P33,V33,J48,P48,V48)</f>
         <v>424.37016141415762</v>
       </c>
-      <c r="AC33" s="181"/>
+      <c r="AC33" s="226"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="62">
@@ -14855,7 +14870,7 @@
         <f t="shared" si="13"/>
         <v>1140.446248566501</v>
       </c>
-      <c r="AC34" s="181"/>
+      <c r="AC34" s="226"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="62">
@@ -14938,7 +14953,7 @@
         <f t="shared" si="13"/>
         <v>1094.455898676571</v>
       </c>
-      <c r="AC35" s="181"/>
+      <c r="AC35" s="226"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="62">
@@ -15021,7 +15036,7 @@
         <f t="shared" si="13"/>
         <v>959.47320744140438</v>
       </c>
-      <c r="AC36" s="181"/>
+      <c r="AC36" s="226"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="62">
@@ -15104,7 +15119,7 @@
         <f t="shared" si="13"/>
         <v>1759.1533149637719</v>
       </c>
-      <c r="AC37" s="181"/>
+      <c r="AC37" s="226"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="62">
@@ -15187,7 +15202,7 @@
         <f t="shared" si="13"/>
         <v>1052.612355310009</v>
       </c>
-      <c r="AC38" s="181"/>
+      <c r="AC38" s="226"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="62">
@@ -15270,7 +15285,7 @@
         <f t="shared" si="13"/>
         <v>1650.476464510909</v>
       </c>
-      <c r="AC39" s="181"/>
+      <c r="AC39" s="226"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="62">
@@ -15353,7 +15368,7 @@
         <f t="shared" si="13"/>
         <v>1532.3882049874501</v>
       </c>
-      <c r="AC40" s="181"/>
+      <c r="AC40" s="226"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="62">
@@ -15436,7 +15451,7 @@
         <f t="shared" si="13"/>
         <v>1462.6593960045279</v>
       </c>
-      <c r="AC41" s="181"/>
+      <c r="AC41" s="226"/>
     </row>
     <row r="42" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
@@ -15519,7 +15534,7 @@
         <f t="shared" si="13"/>
         <v>2176.2645981283331</v>
       </c>
-      <c r="AC42" s="181"/>
+      <c r="AC42" s="226"/>
     </row>
     <row r="45" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:29" ht="71.25" x14ac:dyDescent="0.25">
@@ -15665,7 +15680,7 @@
         <f t="shared" si="14"/>
         <v>51.003629847107128</v>
       </c>
-      <c r="AC47" s="181" t="s">
+      <c r="AC47" s="226" t="s">
         <v>97</v>
       </c>
     </row>
@@ -15750,7 +15765,7 @@
         <f t="shared" ref="AB48:AB57" si="19">MIN(J33,P33,V33,J48,P48,V48)</f>
         <v>164.3137182790401</v>
       </c>
-      <c r="AC48" s="181"/>
+      <c r="AC48" s="226"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="62">
@@ -15833,7 +15848,7 @@
         <f t="shared" si="19"/>
         <v>331.89182600651571</v>
       </c>
-      <c r="AC49" s="181"/>
+      <c r="AC49" s="226"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="62">
@@ -15916,7 +15931,7 @@
         <f t="shared" si="19"/>
         <v>604.17733558348482</v>
       </c>
-      <c r="AC50" s="181"/>
+      <c r="AC50" s="226"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="62">
@@ -15999,7 +16014,7 @@
         <f t="shared" si="19"/>
         <v>316.00031419679999</v>
       </c>
-      <c r="AC51" s="181"/>
+      <c r="AC51" s="226"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="62">
@@ -16082,7 +16097,7 @@
         <f t="shared" si="19"/>
         <v>316.19389828279509</v>
       </c>
-      <c r="AC52" s="181"/>
+      <c r="AC52" s="226"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="62">
@@ -16165,7 +16180,7 @@
         <f t="shared" si="19"/>
         <v>537.9392090936841</v>
       </c>
-      <c r="AC53" s="181"/>
+      <c r="AC53" s="226"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="62">
@@ -16248,7 +16263,7 @@
         <f t="shared" si="19"/>
         <v>684.33792444255926</v>
       </c>
-      <c r="AC54" s="181"/>
+      <c r="AC54" s="226"/>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="62">
@@ -16331,7 +16346,7 @@
         <f t="shared" si="19"/>
         <v>619.82867032597153</v>
       </c>
-      <c r="AC55" s="181"/>
+      <c r="AC55" s="226"/>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="62">
@@ -16414,7 +16429,7 @@
         <f t="shared" si="19"/>
         <v>747.86980608777139</v>
       </c>
-      <c r="AC56" s="181"/>
+      <c r="AC56" s="226"/>
     </row>
     <row r="57" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
@@ -16497,7 +16512,7 @@
         <f t="shared" si="19"/>
         <v>861.35857318277647</v>
       </c>
-      <c r="AC57" s="181"/>
+      <c r="AC57" s="226"/>
     </row>
     <row r="59" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:29" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -16908,46 +16923,46 @@
       </c>
     </row>
     <row r="76" spans="2:18" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="217" t="s">
+      <c r="B76" s="198" t="s">
         <v>4</v>
       </c>
-      <c r="C76" s="218" t="s">
+      <c r="C76" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="218" t="s">
+      <c r="D76" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="E76" s="205"/>
-      <c r="F76" s="219"/>
-      <c r="G76" s="220" t="s">
+      <c r="E76" s="186"/>
+      <c r="F76" s="200"/>
+      <c r="G76" s="201" t="s">
         <v>111</v>
       </c>
       <c r="H76" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="I76" s="196"/>
+      <c r="I76" s="177"/>
       <c r="J76" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="K76" s="196"/>
+      <c r="K76" s="177"/>
       <c r="L76" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="M76" s="196"/>
+      <c r="M76" s="177"/>
       <c r="N76" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="O76" s="196"/>
+      <c r="O76" s="177"/>
       <c r="P76" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="Q76" s="196"/>
+      <c r="Q76" s="177"/>
       <c r="R76" s="148" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="77" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="221">
+      <c r="B77" s="202">
         <v>66</v>
       </c>
       <c r="C77" s="43" t="s">
@@ -16984,13 +16999,13 @@
         <v>7.4984230026728937</v>
       </c>
       <c r="Q77" s="47"/>
-      <c r="R77" s="222">
+      <c r="R77" s="203">
         <f>100*(1-($N17/R47))</f>
         <v>10.135182701513267</v>
       </c>
     </row>
     <row r="78" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="221">
+      <c r="B78" s="202">
         <v>128</v>
       </c>
       <c r="C78" s="43" t="s">
@@ -17027,13 +17042,13 @@
         <v>8.6552623674893248</v>
       </c>
       <c r="Q78" s="25"/>
-      <c r="R78" s="222">
+      <c r="R78" s="203">
         <f t="shared" ref="R78:R79" si="31">100*(1-($N18/R48))</f>
         <v>10.08271274036222</v>
       </c>
     </row>
     <row r="79" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="221">
+      <c r="B79" s="202">
         <v>175</v>
       </c>
       <c r="C79" s="43" t="s">
@@ -17070,13 +17085,13 @@
         <v>16.847756525706238</v>
       </c>
       <c r="Q79" s="25"/>
-      <c r="R79" s="222">
+      <c r="R79" s="203">
         <f t="shared" si="31"/>
         <v>14.701541261839591</v>
       </c>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B80" s="221">
+      <c r="B80" s="202">
         <v>225</v>
       </c>
       <c r="C80" s="43" t="s">
@@ -17098,10 +17113,10 @@
       <c r="O80" s="25"/>
       <c r="P80" s="173"/>
       <c r="Q80" s="25"/>
-      <c r="R80" s="198"/>
+      <c r="R80" s="179"/>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B81" s="221">
+      <c r="B81" s="202">
         <v>275</v>
       </c>
       <c r="C81" s="43" t="s">
@@ -17123,10 +17138,10 @@
       <c r="O81" s="25"/>
       <c r="P81" s="173"/>
       <c r="Q81" s="25"/>
-      <c r="R81" s="198"/>
+      <c r="R81" s="179"/>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B82" s="221">
+      <c r="B82" s="202">
         <v>325</v>
       </c>
       <c r="C82" s="43" t="s">
@@ -17148,10 +17163,10 @@
       <c r="O82" s="25"/>
       <c r="P82" s="173"/>
       <c r="Q82" s="25"/>
-      <c r="R82" s="198"/>
+      <c r="R82" s="179"/>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B83" s="221">
+      <c r="B83" s="202">
         <v>375</v>
       </c>
       <c r="C83" s="43" t="s">
@@ -17173,10 +17188,10 @@
       <c r="O83" s="25"/>
       <c r="P83" s="173"/>
       <c r="Q83" s="25"/>
-      <c r="R83" s="198"/>
+      <c r="R83" s="179"/>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B84" s="221">
+      <c r="B84" s="202">
         <v>425</v>
       </c>
       <c r="C84" s="43" t="s">
@@ -17198,10 +17213,10 @@
       <c r="O84" s="173"/>
       <c r="P84" s="173"/>
       <c r="Q84" s="173"/>
-      <c r="R84" s="198"/>
+      <c r="R84" s="179"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B85" s="221">
+      <c r="B85" s="202">
         <v>475</v>
       </c>
       <c r="C85" s="43" t="s">
@@ -17223,10 +17238,10 @@
       <c r="O85" s="173"/>
       <c r="P85" s="173"/>
       <c r="Q85" s="173"/>
-      <c r="R85" s="198"/>
+      <c r="R85" s="179"/>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B86" s="221">
+      <c r="B86" s="202">
         <v>512</v>
       </c>
       <c r="C86" s="43" t="s">
@@ -17248,10 +17263,10 @@
       <c r="O86" s="173"/>
       <c r="P86" s="173"/>
       <c r="Q86" s="173"/>
-      <c r="R86" s="198"/>
+      <c r="R86" s="179"/>
     </row>
     <row r="87" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="221">
+      <c r="B87" s="202">
         <v>555</v>
       </c>
       <c r="C87" s="173" t="s">
@@ -17273,43 +17288,43 @@
       <c r="O87" s="174"/>
       <c r="P87" s="174"/>
       <c r="Q87" s="174"/>
-      <c r="R87" s="223"/>
+      <c r="R87" s="204"/>
     </row>
     <row r="88" spans="2:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="B88" s="215"/>
-      <c r="C88" s="200"/>
-      <c r="D88" s="200"/>
-      <c r="E88" s="200"/>
-      <c r="F88" s="200"/>
-      <c r="G88" s="224" t="s">
+      <c r="B88" s="196"/>
+      <c r="C88" s="181"/>
+      <c r="D88" s="181"/>
+      <c r="E88" s="181"/>
+      <c r="F88" s="181"/>
+      <c r="G88" s="205" t="s">
         <v>108</v>
       </c>
-      <c r="H88" s="200">
+      <c r="H88" s="181">
         <f>SUM(H77:H83)</f>
         <v>37.264817272287296</v>
       </c>
-      <c r="I88" s="200"/>
-      <c r="J88" s="200">
+      <c r="I88" s="181"/>
+      <c r="J88" s="181">
         <f>SUM(J77:J83)</f>
         <v>33.555595283804074</v>
       </c>
-      <c r="K88" s="200"/>
-      <c r="L88" s="200">
+      <c r="K88" s="181"/>
+      <c r="L88" s="181">
         <f>SUM(L77:L83)</f>
         <v>34.079920129325025</v>
       </c>
-      <c r="M88" s="200"/>
-      <c r="N88" s="200">
+      <c r="M88" s="181"/>
+      <c r="N88" s="181">
         <f>SUM(N77:N83)</f>
         <v>35.207462279528912</v>
       </c>
-      <c r="O88" s="200"/>
-      <c r="P88" s="202">
+      <c r="O88" s="181"/>
+      <c r="P88" s="183">
         <f>SUM(P77:P83)</f>
         <v>33.001441895868453</v>
       </c>
-      <c r="Q88" s="200"/>
-      <c r="R88" s="203">
+      <c r="Q88" s="181"/>
+      <c r="R88" s="184">
         <f>SUM(R77:R83)</f>
         <v>34.919436703715078</v>
       </c>
@@ -17331,8 +17346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD89"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T85" sqref="T85"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17383,16 +17398,16 @@
       <c r="H1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="236" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="237" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="70" t="s">
+      <c r="L1" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="182" t="s">
+      <c r="N1" s="227" t="s">
         <v>101</v>
       </c>
       <c r="O1" s="72" t="s">
@@ -17460,7 +17475,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="81"/>
-      <c r="N2" s="183"/>
+      <c r="N2" s="228"/>
       <c r="O2" s="83">
         <v>620.20000000000005</v>
       </c>
@@ -17530,7 +17545,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="81"/>
-      <c r="N3" s="183"/>
+      <c r="N3" s="228"/>
       <c r="O3" s="83">
         <v>588.5</v>
       </c>
@@ -17600,7 +17615,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="81"/>
-      <c r="N4" s="183"/>
+      <c r="N4" s="228"/>
       <c r="O4" s="83">
         <v>445.1</v>
       </c>
@@ -17670,7 +17685,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="81"/>
-      <c r="N5" s="183"/>
+      <c r="N5" s="228"/>
       <c r="O5" s="83">
         <v>437.1</v>
       </c>
@@ -17740,7 +17755,7 @@
         <v>5.2048899275367097E-5</v>
       </c>
       <c r="M6" s="81"/>
-      <c r="N6" s="183"/>
+      <c r="N6" s="228"/>
       <c r="O6" s="83">
         <v>494</v>
       </c>
@@ -17810,7 +17825,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="81"/>
-      <c r="N7" s="183"/>
+      <c r="N7" s="228"/>
       <c r="O7" s="83">
         <v>542.70000000000005</v>
       </c>
@@ -17880,7 +17895,7 @@
         <v>5.2700911301120999E-2</v>
       </c>
       <c r="M8" s="81"/>
-      <c r="N8" s="183"/>
+      <c r="N8" s="228"/>
       <c r="O8" s="83">
         <v>1108.2</v>
       </c>
@@ -17934,7 +17949,7 @@
         <v>0.10383858511063999</v>
       </c>
       <c r="M9" s="81"/>
-      <c r="N9" s="183"/>
+      <c r="N9" s="228"/>
       <c r="O9" s="83">
         <v>1586.5</v>
       </c>
@@ -17988,7 +18003,7 @@
         <v>5.4542711456401598E-2</v>
       </c>
       <c r="M10" s="81"/>
-      <c r="N10" s="183"/>
+      <c r="N10" s="228"/>
       <c r="O10" s="83">
         <v>964.4</v>
       </c>
@@ -18042,7 +18057,7 @@
         <v>7.7480560334198104E-2</v>
       </c>
       <c r="M11" s="81"/>
-      <c r="N11" s="183"/>
+      <c r="N11" s="228"/>
       <c r="O11" s="83">
         <v>1197.7</v>
       </c>
@@ -18096,7 +18111,7 @@
         <v>0.119178587870186</v>
       </c>
       <c r="M12" s="81"/>
-      <c r="N12" s="183"/>
+      <c r="N12" s="228"/>
       <c r="O12" s="83">
         <v>1642.2</v>
       </c>
@@ -18150,7 +18165,7 @@
         <v>0.123343452802003</v>
       </c>
       <c r="M13" s="81"/>
-      <c r="N13" s="183"/>
+      <c r="N13" s="228"/>
       <c r="O13" s="83">
         <v>973.1</v>
       </c>
@@ -18204,7 +18219,7 @@
         <v>0.11770085</v>
       </c>
       <c r="M14" s="81"/>
-      <c r="N14" s="183"/>
+      <c r="N14" s="228"/>
       <c r="O14" s="83">
         <v>1299.5</v>
       </c>
@@ -18257,7 +18272,7 @@
         <v>0.10259973999999999</v>
       </c>
       <c r="M15" s="81"/>
-      <c r="N15" s="184"/>
+      <c r="N15" s="229"/>
       <c r="O15" s="98">
         <v>1658.2</v>
       </c>
@@ -18425,7 +18440,7 @@
         <f t="shared" si="1"/>
         <v>7.1624823830306106</v>
       </c>
-      <c r="AC20" s="185" t="s">
+      <c r="AC20" s="230" t="s">
         <v>100</v>
       </c>
       <c r="AD20" s="81"/>
@@ -18512,7 +18527,7 @@
         <f t="shared" si="1"/>
         <v>7.0025001281314321</v>
       </c>
-      <c r="AC21" s="186"/>
+      <c r="AC21" s="231"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="74">
@@ -18596,7 +18611,7 @@
         <f t="shared" si="1"/>
         <v>12.053521338959859</v>
       </c>
-      <c r="AC22" s="186"/>
+      <c r="AC22" s="231"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="74">
@@ -18680,7 +18695,7 @@
         <f t="shared" si="1"/>
         <v>14.953461875120009</v>
       </c>
-      <c r="AC23" s="186"/>
+      <c r="AC23" s="231"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="74">
@@ -18764,7 +18779,7 @@
         <f t="shared" si="1"/>
         <v>30.92068012184415</v>
       </c>
-      <c r="AC24" s="186"/>
+      <c r="AC24" s="231"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="74">
@@ -18848,7 +18863,7 @@
         <f t="shared" si="1"/>
         <v>35.963800570908738</v>
       </c>
-      <c r="AC25" s="186"/>
+      <c r="AC25" s="231"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="74">
@@ -18932,7 +18947,7 @@
         <f t="shared" si="1"/>
         <v>52.359313831311823</v>
       </c>
-      <c r="AC26" s="186"/>
+      <c r="AC26" s="231"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="74">
@@ -19016,7 +19031,7 @@
         <f t="shared" si="1"/>
         <v>48.68</v>
       </c>
-      <c r="AC27" s="186"/>
+      <c r="AC27" s="231"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="74">
@@ -19100,7 +19115,7 @@
         <f t="shared" si="1"/>
         <v>131.37</v>
       </c>
-      <c r="AC28" s="186"/>
+      <c r="AC28" s="231"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="74">
@@ -19184,7 +19199,7 @@
         <f t="shared" si="1"/>
         <v>83.64</v>
       </c>
-      <c r="AC29" s="186"/>
+      <c r="AC29" s="231"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="74">
@@ -19268,7 +19283,7 @@
         <f t="shared" si="1"/>
         <v>124.14</v>
       </c>
-      <c r="AC30" s="186"/>
+      <c r="AC30" s="231"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="74">
@@ -19352,7 +19367,7 @@
         <f t="shared" si="1"/>
         <v>73.84</v>
       </c>
-      <c r="AC31" s="186"/>
+      <c r="AC31" s="231"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="74">
@@ -19436,7 +19451,7 @@
         <f t="shared" si="1"/>
         <v>162.16</v>
       </c>
-      <c r="AC32" s="186"/>
+      <c r="AC32" s="231"/>
     </row>
     <row r="33" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="90">
@@ -19520,7 +19535,7 @@
         <f t="shared" si="1"/>
         <v>124.56508883250839</v>
       </c>
-      <c r="AC33" s="187"/>
+      <c r="AC33" s="232"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="F34" s="100"/>
@@ -19670,7 +19685,7 @@
         <f t="shared" si="4"/>
         <v>2.0641211000269082</v>
       </c>
-      <c r="AC37" s="188" t="s">
+      <c r="AC37" s="233" t="s">
         <v>97</v>
       </c>
     </row>
@@ -19756,7 +19771,7 @@
         <f t="shared" si="4"/>
         <v>2.1945633264073812</v>
       </c>
-      <c r="AC38" s="189"/>
+      <c r="AC38" s="234"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="74">
@@ -19840,7 +19855,7 @@
         <f t="shared" si="4"/>
         <v>3.5317575157282439</v>
       </c>
-      <c r="AC39" s="189"/>
+      <c r="AC39" s="234"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="74">
@@ -19924,7 +19939,7 @@
         <f t="shared" si="4"/>
         <v>5.5198218998469999</v>
       </c>
-      <c r="AC40" s="189"/>
+      <c r="AC40" s="234"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="74">
@@ -20008,7 +20023,7 @@
         <f t="shared" si="4"/>
         <v>13.26766609099619</v>
       </c>
-      <c r="AC41" s="189"/>
+      <c r="AC41" s="234"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="74">
@@ -20092,7 +20107,7 @@
         <f t="shared" si="4"/>
         <v>9.8425102057402345</v>
       </c>
-      <c r="AC42" s="189"/>
+      <c r="AC42" s="234"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="74">
@@ -20176,7 +20191,7 @@
         <f t="shared" si="4"/>
         <v>15.0796434936838</v>
       </c>
-      <c r="AC43" s="189"/>
+      <c r="AC43" s="234"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="74">
@@ -20260,7 +20275,7 @@
         <f t="shared" si="4"/>
         <v>15.41</v>
       </c>
-      <c r="AC44" s="189"/>
+      <c r="AC44" s="234"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="74">
@@ -20344,7 +20359,7 @@
         <f t="shared" si="4"/>
         <v>51.11</v>
       </c>
-      <c r="AC45" s="189"/>
+      <c r="AC45" s="234"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="74">
@@ -20428,7 +20443,7 @@
         <f t="shared" si="4"/>
         <v>32.36</v>
       </c>
-      <c r="AC46" s="189"/>
+      <c r="AC46" s="234"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="74">
@@ -20512,7 +20527,7 @@
         <f t="shared" si="4"/>
         <v>62.28</v>
       </c>
-      <c r="AC47" s="189"/>
+      <c r="AC47" s="234"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="74">
@@ -20596,7 +20611,7 @@
         <f t="shared" si="4"/>
         <v>39.17</v>
       </c>
-      <c r="AC48" s="189"/>
+      <c r="AC48" s="234"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="74">
@@ -20680,7 +20695,7 @@
         <f t="shared" si="4"/>
         <v>73.33</v>
       </c>
-      <c r="AC49" s="189"/>
+      <c r="AC49" s="234"/>
     </row>
     <row r="50" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="90">
@@ -20764,7 +20779,7 @@
         <f t="shared" si="4"/>
         <v>50.711048175550303</v>
       </c>
-      <c r="AC50" s="190"/>
+      <c r="AC50" s="235"/>
     </row>
     <row r="53" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F53" s="100"/>
@@ -20782,29 +20797,29 @@
       <c r="D54" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="195" t="s">
+      <c r="F54" s="176" t="s">
         <v>107</v>
       </c>
       <c r="G54" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="H54" s="196"/>
+      <c r="H54" s="177"/>
       <c r="I54" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="J54" s="196"/>
+      <c r="J54" s="177"/>
       <c r="K54" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="L54" s="196"/>
+      <c r="L54" s="177"/>
       <c r="M54" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="N54" s="196"/>
+      <c r="N54" s="177"/>
       <c r="O54" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="P54" s="196"/>
+      <c r="P54" s="177"/>
       <c r="Q54" s="148" t="s">
         <v>58</v>
       </c>
@@ -20823,7 +20838,7 @@
         <f>B55</f>
         <v>10</v>
       </c>
-      <c r="F55" s="211"/>
+      <c r="F55" s="192"/>
       <c r="G55" s="85">
         <f t="shared" ref="G55:G68" si="7">100*(1-($X2/G20))</f>
         <v>1.0282323766287016</v>
@@ -20863,7 +20878,7 @@
         <f t="shared" ref="D56:D68" si="8">B56</f>
         <v>10</v>
       </c>
-      <c r="F56" s="211"/>
+      <c r="F56" s="192"/>
       <c r="G56" s="85">
         <f t="shared" si="7"/>
         <v>0.63131863335519345</v>
@@ -20903,7 +20918,7 @@
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="F57" s="211"/>
+      <c r="F57" s="192"/>
       <c r="G57" s="85">
         <f t="shared" si="7"/>
         <v>2.7839832369019102</v>
@@ -20943,7 +20958,7 @@
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="F58" s="211"/>
+      <c r="F58" s="192"/>
       <c r="G58" s="85">
         <f t="shared" si="7"/>
         <v>3.8541352660327877</v>
@@ -20983,7 +20998,7 @@
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="F59" s="211"/>
+      <c r="F59" s="192"/>
       <c r="G59" s="85">
         <f t="shared" si="7"/>
         <v>6.6944583662914781</v>
@@ -21023,7 +21038,7 @@
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="F60" s="211"/>
+      <c r="F60" s="192"/>
       <c r="G60" s="85">
         <f t="shared" si="7"/>
         <v>7.1421424192096961</v>
@@ -21063,7 +21078,7 @@
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="F61" s="211"/>
+      <c r="F61" s="192"/>
       <c r="G61" s="85">
         <f t="shared" si="7"/>
         <v>16.469941499567121</v>
@@ -21103,7 +21118,7 @@
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="F62" s="211"/>
+      <c r="F62" s="192"/>
       <c r="G62" s="85">
         <f t="shared" si="7"/>
         <v>6.2834916448257889</v>
@@ -21143,7 +21158,7 @@
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="F63" s="211"/>
+      <c r="F63" s="192"/>
       <c r="G63" s="85">
         <f t="shared" si="7"/>
         <v>9.4129812120335892</v>
@@ -21183,7 +21198,7 @@
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="F64" s="211"/>
+      <c r="F64" s="192"/>
       <c r="G64" s="85">
         <f t="shared" si="7"/>
         <v>9.7552552206847221</v>
@@ -21223,7 +21238,7 @@
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
-      <c r="F65" s="211"/>
+      <c r="F65" s="192"/>
       <c r="G65" s="85">
         <f t="shared" si="7"/>
         <v>22.183996723996724</v>
@@ -21263,7 +21278,7 @@
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
-      <c r="F66" s="211"/>
+      <c r="F66" s="192"/>
       <c r="G66" s="85">
         <f t="shared" si="7"/>
         <v>17.491972828629976</v>
@@ -21303,7 +21318,7 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="F67" s="211"/>
+      <c r="F67" s="192"/>
       <c r="G67" s="85">
         <f t="shared" si="7"/>
         <v>13.674766956429707</v>
@@ -21343,7 +21358,7 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="F68" s="211"/>
+      <c r="F68" s="192"/>
       <c r="G68" s="85">
         <f t="shared" si="7"/>
         <v>11.1507630556002</v>
@@ -21370,39 +21385,39 @@
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F69" s="211"/>
-      <c r="Q69" s="225"/>
+      <c r="F69" s="192"/>
+      <c r="Q69" s="206"/>
     </row>
     <row r="70" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="F70" s="199" t="s">
+      <c r="F70" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="G70" s="226">
+      <c r="G70" s="207">
         <f>SUM(G55:G68)</f>
         <v>128.55743944018758</v>
       </c>
-      <c r="H70" s="226"/>
-      <c r="I70" s="226">
+      <c r="H70" s="207"/>
+      <c r="I70" s="207">
         <f t="shared" ref="I70:Q70" si="14">SUM(I55:I68)</f>
         <v>122.34601072741829</v>
       </c>
-      <c r="J70" s="226"/>
-      <c r="K70" s="226">
+      <c r="J70" s="207"/>
+      <c r="K70" s="207">
         <f t="shared" si="14"/>
         <v>122.88569288702129</v>
       </c>
-      <c r="L70" s="226"/>
-      <c r="M70" s="227">
+      <c r="L70" s="207"/>
+      <c r="M70" s="208">
         <f t="shared" si="14"/>
         <v>115.22353557631371</v>
       </c>
-      <c r="N70" s="226"/>
-      <c r="O70" s="226">
+      <c r="N70" s="207"/>
+      <c r="O70" s="207">
         <f t="shared" si="14"/>
         <v>117.60518792927718</v>
       </c>
-      <c r="P70" s="226"/>
-      <c r="Q70" s="228">
+      <c r="P70" s="207"/>
+      <c r="Q70" s="209">
         <f t="shared" si="14"/>
         <v>121.6805576079647</v>
       </c>
@@ -21421,29 +21436,29 @@
       <c r="D73" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="F73" s="195" t="s">
+      <c r="F73" s="176" t="s">
         <v>111</v>
       </c>
       <c r="G73" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="H73" s="196"/>
+      <c r="H73" s="177"/>
       <c r="I73" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="J73" s="196"/>
+      <c r="J73" s="177"/>
       <c r="K73" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="L73" s="196"/>
+      <c r="L73" s="177"/>
       <c r="M73" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="N73" s="196"/>
+      <c r="N73" s="177"/>
       <c r="O73" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="P73" s="196"/>
+      <c r="P73" s="177"/>
       <c r="Q73" s="148" t="s">
         <v>57</v>
       </c>
@@ -21462,7 +21477,7 @@
         <f>B74</f>
         <v>10</v>
       </c>
-      <c r="F74" s="211"/>
+      <c r="F74" s="192"/>
       <c r="G74" s="85">
         <f>100*(1-($X2/F20))</f>
         <v>0</v>
@@ -21502,7 +21517,7 @@
         <f t="shared" ref="D75:D87" si="15">B75</f>
         <v>10</v>
       </c>
-      <c r="F75" s="211"/>
+      <c r="F75" s="192"/>
       <c r="G75" s="85">
         <f t="shared" ref="G75:G87" si="16">100*(1-($X3/F21))</f>
         <v>0</v>
@@ -21542,7 +21557,7 @@
         <f t="shared" si="15"/>
         <v>15</v>
       </c>
-      <c r="F76" s="211"/>
+      <c r="F76" s="192"/>
       <c r="G76" s="85">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -21582,7 +21597,7 @@
         <f t="shared" si="15"/>
         <v>15</v>
       </c>
-      <c r="F77" s="211"/>
+      <c r="F77" s="192"/>
       <c r="G77" s="85">
         <f t="shared" si="16"/>
         <v>5.5511151231257827E-14</v>
@@ -21622,7 +21637,7 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="F78" s="211"/>
+      <c r="F78" s="192"/>
       <c r="G78" s="85">
         <f t="shared" si="16"/>
         <v>-2.2204460492503131E-14</v>
@@ -21662,7 +21677,7 @@
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="F79" s="211"/>
+      <c r="F79" s="192"/>
       <c r="G79" s="85">
         <f t="shared" si="16"/>
         <v>-2.2204460492503131E-14</v>
@@ -21702,7 +21717,7 @@
         <f t="shared" si="15"/>
         <v>35</v>
       </c>
-      <c r="F80" s="211"/>
+      <c r="F80" s="192"/>
       <c r="G80" s="85">
         <f t="shared" si="16"/>
         <v>8.145093673438442</v>
@@ -21742,7 +21757,7 @@
         <f t="shared" si="15"/>
         <v>35</v>
       </c>
-      <c r="F81" s="211"/>
+      <c r="F81" s="192"/>
       <c r="G81" s="85">
         <f t="shared" si="16"/>
         <v>0.9218514683734802</v>
@@ -21782,7 +21797,7 @@
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="F82" s="211"/>
+      <c r="F82" s="192"/>
       <c r="G82" s="85">
         <f t="shared" si="16"/>
         <v>3.2274319917560024</v>
@@ -21822,7 +21837,7 @@
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="F83" s="211"/>
+      <c r="F83" s="192"/>
       <c r="G83" s="85">
         <f t="shared" si="16"/>
         <v>2.6694147153038195</v>
@@ -21862,7 +21877,7 @@
         <f t="shared" si="15"/>
         <v>75</v>
       </c>
-      <c r="F84" s="211"/>
+      <c r="F84" s="192"/>
       <c r="G84" s="85">
         <f t="shared" si="16"/>
         <v>11.110403525778301</v>
@@ -21902,7 +21917,7 @@
         <f t="shared" si="15"/>
         <v>75</v>
       </c>
-      <c r="F85" s="211"/>
+      <c r="F85" s="192"/>
       <c r="G85" s="85">
         <f t="shared" si="16"/>
         <v>2.6981771130646481</v>
@@ -21942,7 +21957,7 @@
         <f t="shared" si="15"/>
         <v>100</v>
       </c>
-      <c r="F86" s="211"/>
+      <c r="F86" s="192"/>
       <c r="G86" s="85">
         <f t="shared" si="16"/>
         <v>7.8748411229252806</v>
@@ -21982,7 +21997,7 @@
         <f t="shared" si="15"/>
         <v>100</v>
       </c>
-      <c r="F87" s="211"/>
+      <c r="F87" s="192"/>
       <c r="G87" s="85">
         <f t="shared" si="16"/>
         <v>5.2745652689257128</v>
@@ -22009,40 +22024,40 @@
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F88" s="211"/>
+      <c r="F88" s="192"/>
       <c r="G88" s="85"/>
-      <c r="Q88" s="225"/>
+      <c r="Q88" s="206"/>
     </row>
     <row r="89" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="F89" s="199" t="s">
+      <c r="F89" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="G89" s="226">
+      <c r="G89" s="207">
         <f>SUM(G74:G87)</f>
         <v>41.9217788795657</v>
       </c>
-      <c r="H89" s="226"/>
-      <c r="I89" s="226">
+      <c r="H89" s="207"/>
+      <c r="I89" s="207">
         <f t="shared" ref="I89" si="22">SUM(I74:I87)</f>
         <v>31.643959753623562</v>
       </c>
-      <c r="J89" s="226"/>
-      <c r="K89" s="202">
+      <c r="J89" s="207"/>
+      <c r="K89" s="183">
         <f t="shared" ref="K89" si="23">SUM(K74:K87)</f>
         <v>29.830146744965056</v>
       </c>
-      <c r="L89" s="226"/>
-      <c r="M89" s="226">
+      <c r="L89" s="207"/>
+      <c r="M89" s="207">
         <f t="shared" ref="M89" si="24">SUM(M74:M87)</f>
         <v>33.389864586802496</v>
       </c>
-      <c r="N89" s="226"/>
-      <c r="O89" s="226">
+      <c r="N89" s="207"/>
+      <c r="O89" s="207">
         <f t="shared" ref="O89" si="25">SUM(O74:O87)</f>
         <v>47.012088286553144</v>
       </c>
-      <c r="P89" s="226"/>
-      <c r="Q89" s="228">
+      <c r="P89" s="207"/>
+      <c r="Q89" s="209">
         <f t="shared" ref="Q89" si="26">SUM(Q74:Q87)</f>
         <v>47.100185811818278</v>
       </c>
@@ -22063,7 +22078,7 @@
   <dimension ref="A1:AD89"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U73" sqref="U73"/>
+      <selection activeCell="J2" sqref="J2:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22118,16 +22133,16 @@
       <c r="H1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="118" t="s">
+      <c r="J1" s="239" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="119" t="s">
+      <c r="K1" s="240" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="70" t="s">
+      <c r="L1" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="182" t="s">
+      <c r="N1" s="227" t="s">
         <v>102</v>
       </c>
       <c r="O1" s="72" t="s">
@@ -22174,7 +22189,7 @@
         <v>0.13839703297577099</v>
       </c>
       <c r="M2" s="81"/>
-      <c r="N2" s="183"/>
+      <c r="N2" s="228"/>
       <c r="O2" s="120">
         <v>1499.4</v>
       </c>
@@ -22222,7 +22237,7 @@
         <v>0.166724529297021</v>
       </c>
       <c r="M3" s="81"/>
-      <c r="N3" s="183"/>
+      <c r="N3" s="228"/>
       <c r="O3" s="120">
         <v>2144.8000000000002</v>
       </c>
@@ -22270,7 +22285,7 @@
         <v>0.18084589335345</v>
       </c>
       <c r="M4" s="81"/>
-      <c r="N4" s="183"/>
+      <c r="N4" s="228"/>
       <c r="O4" s="120">
         <v>3673.1</v>
       </c>
@@ -22318,7 +22333,7 @@
         <v>0.16448592817139701</v>
       </c>
       <c r="M5" s="81"/>
-      <c r="N5" s="183"/>
+      <c r="N5" s="228"/>
       <c r="O5" s="120">
         <v>2485.3000000000002</v>
       </c>
@@ -22366,7 +22381,7 @@
         <v>0.16548822922911399</v>
       </c>
       <c r="M6" s="81"/>
-      <c r="N6" s="183"/>
+      <c r="N6" s="228"/>
       <c r="O6" s="120">
         <v>2639.6</v>
       </c>
@@ -22414,7 +22429,7 @@
         <v>8.5820308677663104E-2</v>
       </c>
       <c r="M7" s="81"/>
-      <c r="N7" s="183"/>
+      <c r="N7" s="228"/>
       <c r="O7" s="120">
         <v>2549.8000000000002</v>
       </c>
@@ -22462,7 +22477,7 @@
         <v>0.25143854774763402</v>
       </c>
       <c r="M8" s="81"/>
-      <c r="N8" s="183"/>
+      <c r="N8" s="228"/>
       <c r="O8" s="120">
         <v>3205</v>
       </c>
@@ -22510,7 +22525,7 @@
         <v>0.240786423541137</v>
       </c>
       <c r="M9" s="81"/>
-      <c r="N9" s="183"/>
+      <c r="N9" s="228"/>
       <c r="O9" s="120">
         <v>3252.8</v>
       </c>
@@ -22558,7 +22573,7 @@
         <v>0.376355648204524</v>
       </c>
       <c r="M10" s="81"/>
-      <c r="N10" s="183"/>
+      <c r="N10" s="228"/>
       <c r="O10" s="120">
         <v>3457.9</v>
       </c>
@@ -22606,7 +22621,7 @@
         <v>0.19999778795347101</v>
       </c>
       <c r="M11" s="81"/>
-      <c r="N11" s="183"/>
+      <c r="N11" s="228"/>
       <c r="O11" s="120">
         <v>3760.9</v>
       </c>
@@ -22654,7 +22669,7 @@
         <v>0.37984263028736798</v>
       </c>
       <c r="M12" s="81"/>
-      <c r="N12" s="183"/>
+      <c r="N12" s="228"/>
       <c r="O12" s="120">
         <v>5809.5</v>
       </c>
@@ -22702,7 +22717,7 @@
         <v>0.48266373897129</v>
       </c>
       <c r="M13" s="81"/>
-      <c r="N13" s="183"/>
+      <c r="N13" s="228"/>
       <c r="O13" s="120">
         <v>4045.9</v>
       </c>
@@ -22750,7 +22765,7 @@
         <v>0.33246330781088101</v>
       </c>
       <c r="M14" s="81"/>
-      <c r="N14" s="183"/>
+      <c r="N14" s="228"/>
       <c r="O14" s="120">
         <v>11008.8</v>
       </c>
@@ -22797,7 +22812,7 @@
         <v>0.376834461597291</v>
       </c>
       <c r="M15" s="81"/>
-      <c r="N15" s="184"/>
+      <c r="N15" s="229"/>
       <c r="O15" s="122">
         <v>12762</v>
       </c>
@@ -22956,7 +22971,7 @@
         <f t="shared" si="1"/>
         <v>688.37999507522272</v>
       </c>
-      <c r="AC20" s="185" t="s">
+      <c r="AC20" s="230" t="s">
         <v>100</v>
       </c>
       <c r="AD20" s="81"/>
@@ -23043,7 +23058,7 @@
         <f t="shared" si="1"/>
         <v>717.50161435942482</v>
       </c>
-      <c r="AC21" s="186"/>
+      <c r="AC21" s="231"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="74">
@@ -23127,7 +23142,7 @@
         <f t="shared" si="1"/>
         <v>964.98395479637486</v>
       </c>
-      <c r="AC22" s="186"/>
+      <c r="AC22" s="231"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="74">
@@ -23211,7 +23226,7 @@
         <f t="shared" si="1"/>
         <v>733.14312201166831</v>
       </c>
-      <c r="AC23" s="186"/>
+      <c r="AC23" s="231"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="74">
@@ -23295,7 +23310,7 @@
         <f t="shared" si="1"/>
         <v>969.22899048151965</v>
       </c>
-      <c r="AC24" s="186"/>
+      <c r="AC24" s="231"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="74">
@@ -23379,7 +23394,7 @@
         <f t="shared" si="1"/>
         <v>834.46647118298301</v>
       </c>
-      <c r="AC25" s="186"/>
+      <c r="AC25" s="231"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="74">
@@ -23463,7 +23478,7 @@
         <f t="shared" si="1"/>
         <v>1274.490401171106</v>
       </c>
-      <c r="AC26" s="186"/>
+      <c r="AC26" s="231"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="74">
@@ -23547,7 +23562,7 @@
         <f t="shared" si="1"/>
         <v>976.1608910257321</v>
       </c>
-      <c r="AC27" s="186"/>
+      <c r="AC27" s="231"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="74">
@@ -23631,7 +23646,7 @@
         <f t="shared" si="1"/>
         <v>1274.5099356113087</v>
       </c>
-      <c r="AC28" s="186"/>
+      <c r="AC28" s="231"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="74">
@@ -23715,7 +23730,7 @@
         <f t="shared" si="1"/>
         <v>1096.901629545918</v>
       </c>
-      <c r="AC29" s="186"/>
+      <c r="AC29" s="231"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="74">
@@ -23799,7 +23814,7 @@
         <f t="shared" si="1"/>
         <v>1561.7656170865769</v>
       </c>
-      <c r="AC30" s="186"/>
+      <c r="AC30" s="231"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="74">
@@ -23883,7 +23898,7 @@
         <f t="shared" si="1"/>
         <v>1343.5564800318457</v>
       </c>
-      <c r="AC31" s="186"/>
+      <c r="AC31" s="231"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="74">
@@ -23967,7 +23982,7 @@
         <f t="shared" si="1"/>
         <v>1885.6651729019122</v>
       </c>
-      <c r="AC32" s="186"/>
+      <c r="AC32" s="231"/>
     </row>
     <row r="33" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="90">
@@ -24051,7 +24066,7 @@
         <f t="shared" si="1"/>
         <v>1772.367075022313</v>
       </c>
-      <c r="AC33" s="187"/>
+      <c r="AC33" s="232"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="F34" s="81"/>
@@ -24235,7 +24250,7 @@
         <f t="shared" si="4"/>
         <v>244.23371282824959</v>
       </c>
-      <c r="AC37" s="188" t="s">
+      <c r="AC37" s="233" t="s">
         <v>97</v>
       </c>
     </row>
@@ -24321,7 +24336,7 @@
         <f t="shared" si="4"/>
         <v>386.61503736752002</v>
       </c>
-      <c r="AC38" s="189"/>
+      <c r="AC38" s="234"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="74">
@@ -24405,7 +24420,7 @@
         <f t="shared" si="4"/>
         <v>494.2668202925916</v>
       </c>
-      <c r="AC39" s="189"/>
+      <c r="AC39" s="234"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="74">
@@ -24489,7 +24504,7 @@
         <f t="shared" si="4"/>
         <v>406.30450478178727</v>
       </c>
-      <c r="AC40" s="189"/>
+      <c r="AC40" s="234"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="74">
@@ -24573,7 +24588,7 @@
         <f t="shared" si="4"/>
         <v>575.71353117514593</v>
       </c>
-      <c r="AC41" s="189"/>
+      <c r="AC41" s="234"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="74">
@@ -24657,7 +24672,7 @@
         <f t="shared" si="4"/>
         <v>336.45880937959151</v>
       </c>
-      <c r="AC42" s="189"/>
+      <c r="AC42" s="234"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="74">
@@ -24741,7 +24756,7 @@
         <f t="shared" si="4"/>
         <v>684.28391194705682</v>
       </c>
-      <c r="AC43" s="189"/>
+      <c r="AC43" s="234"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="74">
@@ -24825,7 +24840,7 @@
         <f t="shared" si="4"/>
         <v>496.97777139895788</v>
       </c>
-      <c r="AC44" s="189"/>
+      <c r="AC44" s="234"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="74">
@@ -24909,7 +24924,7 @@
         <f t="shared" si="4"/>
         <v>578.39110371303775</v>
       </c>
-      <c r="AC45" s="189"/>
+      <c r="AC45" s="234"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="74">
@@ -24993,7 +25008,7 @@
         <f t="shared" si="4"/>
         <v>713.86899707552539</v>
       </c>
-      <c r="AC46" s="189"/>
+      <c r="AC46" s="234"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="74">
@@ -25077,7 +25092,7 @@
         <f t="shared" si="4"/>
         <v>784.25716515922602</v>
       </c>
-      <c r="AC47" s="189"/>
+      <c r="AC47" s="234"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="74">
@@ -25161,7 +25176,7 @@
         <f t="shared" si="4"/>
         <v>902.70894530916303</v>
       </c>
-      <c r="AC48" s="189"/>
+      <c r="AC48" s="234"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="74">
@@ -25245,7 +25260,7 @@
         <f t="shared" si="4"/>
         <v>684.68318458488829</v>
       </c>
-      <c r="AC49" s="189"/>
+      <c r="AC49" s="234"/>
     </row>
     <row r="50" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="90">
@@ -25329,7 +25344,7 @@
         <f>MIN(J33,P33,V33,J50,P50,V50)</f>
         <v>810.48530251680882</v>
       </c>
-      <c r="AC50" s="190"/>
+      <c r="AC50" s="235"/>
     </row>
     <row r="53" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:29" ht="85.5" x14ac:dyDescent="0.25">
@@ -25345,29 +25360,29 @@
       <c r="D54" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="195" t="s">
+      <c r="F54" s="176" t="s">
         <v>107</v>
       </c>
       <c r="G54" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="H54" s="196"/>
+      <c r="H54" s="177"/>
       <c r="I54" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="J54" s="196"/>
+      <c r="J54" s="177"/>
       <c r="K54" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="L54" s="196"/>
+      <c r="L54" s="177"/>
       <c r="M54" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="N54" s="196"/>
+      <c r="N54" s="177"/>
       <c r="O54" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="P54" s="196"/>
+      <c r="P54" s="177"/>
       <c r="Q54" s="148" t="s">
         <v>58</v>
       </c>
@@ -25386,7 +25401,7 @@
         <f>B55</f>
         <v>150</v>
       </c>
-      <c r="F55" s="211"/>
+      <c r="F55" s="192"/>
       <c r="G55" s="85">
         <f>100*(1-(J2/G20))</f>
         <v>21.361542873738713</v>
@@ -25426,7 +25441,7 @@
         <f t="shared" ref="D56:D68" si="7">B56</f>
         <v>150</v>
       </c>
-      <c r="F56" s="211"/>
+      <c r="F56" s="192"/>
       <c r="G56" s="85">
         <f t="shared" ref="G56:G68" si="8">100*(1-(J3/G21))</f>
         <v>28.503054572125929</v>
@@ -25466,7 +25481,7 @@
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="F57" s="211"/>
+      <c r="F57" s="192"/>
       <c r="G57" s="85">
         <f t="shared" si="8"/>
         <v>27.322890912494092</v>
@@ -25506,7 +25521,7 @@
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="F58" s="211"/>
+      <c r="F58" s="192"/>
       <c r="G58" s="85">
         <f t="shared" si="8"/>
         <v>33.265004487735418</v>
@@ -25546,7 +25561,7 @@
         <f t="shared" si="7"/>
         <v>250</v>
       </c>
-      <c r="F59" s="211"/>
+      <c r="F59" s="192"/>
       <c r="G59" s="85">
         <f t="shared" si="8"/>
         <v>35.020850516522131</v>
@@ -25586,7 +25601,7 @@
         <f t="shared" si="7"/>
         <v>250</v>
       </c>
-      <c r="F60" s="211"/>
+      <c r="F60" s="192"/>
       <c r="G60" s="85">
         <f t="shared" si="8"/>
         <v>46.749270534234043</v>
@@ -25626,7 +25641,7 @@
         <f t="shared" si="7"/>
         <v>300</v>
       </c>
-      <c r="F61" s="211"/>
+      <c r="F61" s="192"/>
       <c r="G61" s="85">
         <f t="shared" si="8"/>
         <v>46.164075443015562</v>
@@ -25666,7 +25681,7 @@
         <f t="shared" si="7"/>
         <v>300</v>
       </c>
-      <c r="F62" s="211"/>
+      <c r="F62" s="192"/>
       <c r="G62" s="85">
         <f t="shared" si="8"/>
         <v>50.965585176184689</v>
@@ -25706,7 +25721,7 @@
         <f t="shared" si="7"/>
         <v>350</v>
       </c>
-      <c r="F63" s="211"/>
+      <c r="F63" s="192"/>
       <c r="G63" s="85">
         <f t="shared" si="8"/>
         <v>35.570947700427567</v>
@@ -25746,7 +25761,7 @@
         <f t="shared" si="7"/>
         <v>350</v>
       </c>
-      <c r="F64" s="211"/>
+      <c r="F64" s="192"/>
       <c r="G64" s="85">
         <f t="shared" si="8"/>
         <v>52.834637565426746</v>
@@ -25786,7 +25801,7 @@
         <f t="shared" si="7"/>
         <v>400</v>
       </c>
-      <c r="F65" s="211"/>
+      <c r="F65" s="192"/>
       <c r="G65" s="85">
         <f t="shared" si="8"/>
         <v>29.988702122664012</v>
@@ -25826,7 +25841,7 @@
         <f t="shared" si="7"/>
         <v>400</v>
       </c>
-      <c r="F66" s="211"/>
+      <c r="F66" s="192"/>
       <c r="G66" s="85">
         <f t="shared" si="8"/>
         <v>17.699225136286078</v>
@@ -25866,7 +25881,7 @@
         <f t="shared" si="7"/>
         <v>500</v>
       </c>
-      <c r="F67" s="211"/>
+      <c r="F67" s="192"/>
       <c r="G67" s="85">
         <f t="shared" si="8"/>
         <v>33.053422766613295</v>
@@ -25906,7 +25921,7 @@
         <f t="shared" si="7"/>
         <v>550</v>
       </c>
-      <c r="F68" s="211"/>
+      <c r="F68" s="192"/>
       <c r="G68" s="85">
         <f t="shared" si="8"/>
         <v>36.039735249597094</v>
@@ -25933,39 +25948,39 @@
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F69" s="211"/>
-      <c r="Q69" s="225"/>
+      <c r="F69" s="192"/>
+      <c r="Q69" s="206"/>
     </row>
     <row r="70" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="F70" s="199" t="s">
+      <c r="F70" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="G70" s="226">
+      <c r="G70" s="207">
         <f>SUM(G55:G68)</f>
         <v>494.53894505706529</v>
       </c>
-      <c r="H70" s="226"/>
-      <c r="I70" s="226">
+      <c r="H70" s="207"/>
+      <c r="I70" s="207">
         <f t="shared" ref="I70:Q70" si="14">SUM(I55:I68)</f>
         <v>436.89339138314961</v>
       </c>
-      <c r="J70" s="226"/>
-      <c r="K70" s="226">
+      <c r="J70" s="207"/>
+      <c r="K70" s="207">
         <f t="shared" si="14"/>
         <v>449.36335015691691</v>
       </c>
-      <c r="L70" s="226"/>
-      <c r="M70" s="226">
+      <c r="L70" s="207"/>
+      <c r="M70" s="207">
         <f t="shared" si="14"/>
         <v>418.41118488790949</v>
       </c>
-      <c r="N70" s="226"/>
-      <c r="O70" s="227">
+      <c r="N70" s="207"/>
+      <c r="O70" s="208">
         <f t="shared" si="14"/>
         <v>403.47347177426246</v>
       </c>
-      <c r="P70" s="226"/>
-      <c r="Q70" s="228">
+      <c r="P70" s="207"/>
+      <c r="Q70" s="209">
         <f t="shared" si="14"/>
         <v>414.74807966240297</v>
       </c>
@@ -25984,29 +25999,29 @@
       <c r="D73" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="F73" s="195" t="s">
+      <c r="F73" s="176" t="s">
         <v>110</v>
       </c>
       <c r="G73" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="H73" s="196"/>
+      <c r="H73" s="177"/>
       <c r="I73" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="J73" s="196"/>
+      <c r="J73" s="177"/>
       <c r="K73" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="L73" s="196"/>
+      <c r="L73" s="177"/>
       <c r="M73" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="N73" s="196"/>
+      <c r="N73" s="177"/>
       <c r="O73" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="P73" s="196"/>
+      <c r="P73" s="177"/>
       <c r="Q73" s="148" t="s">
         <v>57</v>
       </c>
@@ -26025,7 +26040,7 @@
         <f>B74</f>
         <v>150</v>
       </c>
-      <c r="F74" s="211"/>
+      <c r="F74" s="192"/>
       <c r="G74" s="85">
         <f>100*(1-($J2/F20))</f>
         <v>12.835736295031852</v>
@@ -26065,7 +26080,7 @@
         <f t="shared" ref="D75:D87" si="15">B75</f>
         <v>150</v>
       </c>
-      <c r="F75" s="211"/>
+      <c r="F75" s="192"/>
       <c r="G75" s="85">
         <f t="shared" ref="G75:G87" si="16">100*(1-($J3/F21))</f>
         <v>12.074398968421606</v>
@@ -26105,7 +26120,7 @@
         <f t="shared" si="15"/>
         <v>200</v>
       </c>
-      <c r="F76" s="211"/>
+      <c r="F76" s="192"/>
       <c r="G76" s="85">
         <f t="shared" si="16"/>
         <v>16.952675606816527</v>
@@ -26145,7 +26160,7 @@
         <f t="shared" si="15"/>
         <v>200</v>
       </c>
-      <c r="F77" s="211"/>
+      <c r="F77" s="192"/>
       <c r="G77" s="85">
         <f t="shared" si="16"/>
         <v>19.2927715229822</v>
@@ -26185,7 +26200,7 @@
         <f t="shared" si="15"/>
         <v>250</v>
       </c>
-      <c r="F78" s="211"/>
+      <c r="F78" s="192"/>
       <c r="G78" s="85">
         <f t="shared" si="16"/>
         <v>29.213199692506343</v>
@@ -26225,7 +26240,7 @@
         <f t="shared" si="15"/>
         <v>250</v>
       </c>
-      <c r="F79" s="211"/>
+      <c r="F79" s="192"/>
       <c r="G79" s="85">
         <f t="shared" si="16"/>
         <v>36.581794238440182</v>
@@ -26265,7 +26280,7 @@
         <f t="shared" si="15"/>
         <v>300</v>
       </c>
-      <c r="F80" s="211"/>
+      <c r="F80" s="192"/>
       <c r="G80" s="85">
         <f t="shared" si="16"/>
         <v>24.771371743426251</v>
@@ -26305,7 +26320,7 @@
         <f t="shared" si="15"/>
         <v>300</v>
       </c>
-      <c r="F81" s="211"/>
+      <c r="F81" s="192"/>
       <c r="G81" s="85">
         <f t="shared" si="16"/>
         <v>25.146383131131735</v>
@@ -26345,7 +26360,7 @@
         <f t="shared" si="15"/>
         <v>350</v>
       </c>
-      <c r="F82" s="211"/>
+      <c r="F82" s="192"/>
       <c r="G82" s="85">
         <f t="shared" si="16"/>
         <v>3.3066222611491058</v>
@@ -26385,7 +26400,7 @@
         <f t="shared" si="15"/>
         <v>350</v>
       </c>
-      <c r="F83" s="211"/>
+      <c r="F83" s="192"/>
       <c r="G83" s="85">
         <f t="shared" si="16"/>
         <v>32.463336843200267</v>
@@ -26425,7 +26440,7 @@
         <f t="shared" si="15"/>
         <v>400</v>
       </c>
-      <c r="F84" s="211"/>
+      <c r="F84" s="192"/>
       <c r="G84" s="85">
         <f t="shared" si="16"/>
         <v>15.607672120852357</v>
@@ -26465,7 +26480,7 @@
         <f t="shared" si="15"/>
         <v>400</v>
       </c>
-      <c r="F85" s="211"/>
+      <c r="F85" s="192"/>
       <c r="G85" s="85">
         <f t="shared" si="16"/>
         <v>-7.0735618924727239</v>
@@ -26505,7 +26520,7 @@
         <f t="shared" si="15"/>
         <v>500</v>
       </c>
-      <c r="F86" s="211"/>
+      <c r="F86" s="192"/>
       <c r="G86" s="85">
         <f t="shared" si="16"/>
         <v>8.0887952941700476</v>
@@ -26545,7 +26560,7 @@
         <f t="shared" si="15"/>
         <v>550</v>
       </c>
-      <c r="F87" s="211"/>
+      <c r="F87" s="192"/>
       <c r="G87" s="85">
         <f t="shared" si="16"/>
         <v>8.691821132409828</v>
@@ -26572,39 +26587,39 @@
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F88" s="211"/>
-      <c r="Q88" s="225"/>
+      <c r="F88" s="192"/>
+      <c r="Q88" s="206"/>
     </row>
     <row r="89" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="F89" s="199" t="s">
+      <c r="F89" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="G89" s="226">
+      <c r="G89" s="207">
         <f>SUM(G74:G87)</f>
         <v>237.95301695806558</v>
       </c>
-      <c r="H89" s="226"/>
-      <c r="I89" s="202">
+      <c r="H89" s="207"/>
+      <c r="I89" s="183">
         <f t="shared" ref="I89" si="22">SUM(I74:I87)</f>
         <v>188.78000558937609</v>
       </c>
-      <c r="J89" s="226"/>
-      <c r="K89" s="226">
+      <c r="J89" s="207"/>
+      <c r="K89" s="207">
         <f t="shared" ref="K89" si="23">SUM(K74:K87)</f>
         <v>195.46022774049413</v>
       </c>
-      <c r="L89" s="226"/>
-      <c r="M89" s="226">
+      <c r="L89" s="207"/>
+      <c r="M89" s="207">
         <f t="shared" ref="M89" si="24">SUM(M74:M87)</f>
         <v>268.48139145044763</v>
       </c>
-      <c r="N89" s="226"/>
-      <c r="O89" s="226">
+      <c r="N89" s="207"/>
+      <c r="O89" s="207">
         <f t="shared" ref="O89" si="25">SUM(O74:O87)</f>
         <v>231.24163151727666</v>
       </c>
-      <c r="P89" s="226"/>
-      <c r="Q89" s="228">
+      <c r="P89" s="207"/>
+      <c r="Q89" s="209">
         <f t="shared" ref="Q89" si="26">SUM(Q74:Q87)</f>
         <v>249.17783208266897</v>
       </c>
